--- a/BackTest/2019-11-02 BackTest LAMB.xlsx
+++ b/BackTest/2019-11-02 BackTest LAMB.xlsx
@@ -451,20 +451,14 @@
         <v>71.25500000000005</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>72.7</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>71.34666666666672</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>72.8</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>71.41500000000005</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>71.7</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>71.49000000000005</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>71</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>71.55666666666671</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>71.5</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>71.61833333333338</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>72</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>71.67666666666672</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>71.7</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>71.75166666666672</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>71.90000000000001</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>71.82833333333339</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>72.09999999999999</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>71.87166666666673</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>71.5</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>71.90666666666672</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>71.40000000000001</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +836,14 @@
         <v>71.94833333333339</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>71.59999999999999</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -943,20 +871,14 @@
         <v>71.98666666666671</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>71.5</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -984,20 +906,14 @@
         <v>72.0066666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>71.3</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1025,20 +941,14 @@
         <v>72.04333333333338</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>71.09999999999999</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1066,20 +976,14 @@
         <v>72.09833333333339</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1107,20 +1011,14 @@
         <v>72.15333333333339</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>72.40000000000001</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1148,20 +1046,14 @@
         <v>72.20333333333339</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>72.3</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1189,20 +1081,14 @@
         <v>72.25000000000004</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>72.40000000000001</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1230,20 +1116,14 @@
         <v>72.28500000000005</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>72.5</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1271,20 +1151,14 @@
         <v>72.30000000000005</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>72.7</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1312,20 +1186,14 @@
         <v>72.32333333333339</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>72.40000000000001</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1353,20 +1221,14 @@
         <v>72.34000000000006</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>72.40000000000001</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1394,20 +1256,14 @@
         <v>72.34500000000006</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>72.40000000000001</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1435,20 +1291,14 @@
         <v>72.33500000000005</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1476,20 +1326,14 @@
         <v>72.32833333333338</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>72.3</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1517,20 +1361,14 @@
         <v>72.31500000000004</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>72.3</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1558,20 +1396,14 @@
         <v>72.29666666666671</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>72.40000000000001</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1599,20 +1431,14 @@
         <v>72.29166666666671</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>72.3</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1640,20 +1466,14 @@
         <v>72.29166666666671</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>72.5</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1681,20 +1501,14 @@
         <v>72.28500000000005</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1722,20 +1536,14 @@
         <v>72.26833333333339</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1763,20 +1571,14 @@
         <v>72.24333333333338</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1804,20 +1606,14 @@
         <v>72.23000000000005</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>72.7</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1845,20 +1641,14 @@
         <v>72.23000000000005</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>72.7</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1886,20 +1676,14 @@
         <v>72.22333333333339</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>72.90000000000001</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1927,20 +1711,14 @@
         <v>72.22333333333339</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>73.09999999999999</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1968,20 +1746,14 @@
         <v>72.24000000000005</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>72.7</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2009,20 +1781,14 @@
         <v>72.23333333333338</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2050,20 +1816,14 @@
         <v>72.22000000000006</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>72.90000000000001</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2091,20 +1851,14 @@
         <v>72.20666666666672</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2132,20 +1886,14 @@
         <v>72.21666666666673</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>73.09999999999999</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2173,20 +1921,14 @@
         <v>72.23166666666673</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>73</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2214,20 +1956,14 @@
         <v>72.24833333333339</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>73</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2255,20 +1991,14 @@
         <v>72.26500000000006</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>73.5</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2296,20 +2026,14 @@
         <v>72.30333333333338</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>74</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2337,20 +2061,14 @@
         <v>72.34833333333339</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>74.8</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2385,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2424,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2463,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2502,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2541,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2580,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2619,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2658,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2697,11 +2383,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2736,11 +2418,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2775,11 +2453,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2814,11 +2488,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2853,11 +2523,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2892,11 +2558,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2931,11 +2593,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2970,11 +2628,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3009,11 +2663,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3048,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3087,11 +2733,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3126,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3165,11 +2803,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3204,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3243,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3282,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3321,11 +2943,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3360,11 +2978,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3399,11 +3013,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3438,11 +3048,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3477,11 +3083,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3516,11 +3118,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3555,11 +3153,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3594,11 +3188,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3633,11 +3223,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3672,11 +3258,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3711,11 +3293,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3750,11 +3328,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3789,11 +3363,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3828,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3867,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3906,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3945,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3984,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4023,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4062,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4101,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4140,11 +3678,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4179,11 +3713,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4218,11 +3748,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4257,11 +3783,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4296,11 +3818,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4335,11 +3853,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4374,11 +3888,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4413,11 +3923,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4452,11 +3958,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4491,11 +3993,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4530,11 +4028,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4569,11 +4063,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4608,11 +4098,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4647,11 +4133,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4686,11 +4168,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4725,11 +4203,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4764,11 +4238,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4803,11 +4273,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4842,11 +4308,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4881,11 +4343,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4920,11 +4378,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4959,11 +4413,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4998,11 +4448,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5037,11 +4483,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5076,11 +4518,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5115,11 +4553,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5154,11 +4588,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5193,11 +4623,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5232,11 +4658,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5271,11 +4693,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5310,11 +4728,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5349,11 +4763,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5388,11 +4798,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5427,11 +4833,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5466,11 +4868,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5505,11 +4903,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5544,11 +4938,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5583,11 +4973,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5622,11 +5008,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5661,11 +5043,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5700,11 +5078,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5739,11 +5113,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5778,11 +5148,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5817,11 +5183,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5856,11 +5218,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5895,11 +5253,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5934,11 +5288,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5973,11 +5323,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6012,11 +5358,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6051,11 +5393,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6090,11 +5428,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6129,11 +5463,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6168,11 +5498,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6207,11 +5533,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6246,11 +5568,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6285,11 +5603,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6324,11 +5638,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6363,11 +5673,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6402,11 +5708,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6441,11 +5743,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6480,11 +5778,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6519,11 +5813,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6558,11 +5848,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6597,11 +5883,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6636,11 +5918,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6675,11 +5953,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6714,11 +5988,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6753,11 +6023,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6792,11 +6058,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6831,11 +6093,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6870,11 +6128,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6909,11 +6163,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6948,11 +6198,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6987,11 +6233,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7026,11 +6268,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7065,11 +6303,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7104,11 +6338,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7143,11 +6373,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7182,11 +6408,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7221,11 +6443,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7260,11 +6478,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7299,11 +6513,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7338,11 +6548,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7377,11 +6583,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7416,11 +6618,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7455,11 +6653,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7494,11 +6688,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7533,11 +6723,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7572,11 +6758,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7611,11 +6793,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7650,11 +6828,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7689,11 +6863,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7728,11 +6898,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7767,11 +6933,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7806,11 +6968,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7845,11 +7003,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7884,11 +7038,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7923,11 +7073,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7962,11 +7108,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -8001,11 +7143,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -8040,11 +7178,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8079,11 +7213,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8118,11 +7248,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8157,11 +7283,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8196,11 +7318,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8235,11 +7353,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8274,11 +7388,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8313,11 +7423,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8352,11 +7458,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8391,11 +7493,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8430,11 +7528,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8469,11 +7563,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8508,11 +7598,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8547,11 +7633,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8586,11 +7668,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8625,11 +7703,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8664,11 +7738,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8703,11 +7773,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8742,11 +7808,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8781,11 +7843,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8820,11 +7878,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8859,11 +7913,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8898,11 +7948,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8937,11 +7983,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8976,11 +8018,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -9015,11 +8053,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -9054,11 +8088,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -9093,11 +8123,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -9132,11 +8158,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9171,11 +8193,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9210,11 +8228,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9249,11 +8263,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9288,11 +8298,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9327,11 +8333,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9366,11 +8368,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9405,11 +8403,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9444,11 +8438,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9483,11 +8473,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9522,11 +8508,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9561,11 +8543,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9600,11 +8578,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9639,11 +8613,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9678,11 +8648,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9717,11 +8683,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9756,11 +8718,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9795,11 +8753,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9834,11 +8788,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9873,11 +8823,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9912,11 +8858,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9951,11 +8893,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9990,11 +8928,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -10029,11 +8963,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -10068,11 +8998,7 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -10107,11 +9033,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -10146,11 +9068,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -10185,11 +9103,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -10224,11 +9138,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -10263,11 +9173,7 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10302,11 +9208,7 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10341,11 +9243,7 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10380,11 +9278,7 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -10419,11 +9313,7 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -10458,11 +9348,7 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10497,11 +9383,7 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10536,11 +9418,7 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10575,11 +9453,7 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10614,11 +9488,7 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10653,11 +9523,7 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10692,11 +9558,7 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10731,11 +9593,7 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10770,11 +9628,7 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10809,11 +9663,7 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10848,11 +9698,7 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10887,11 +9733,7 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10926,11 +9768,7 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10965,11 +9803,7 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -11004,11 +9838,7 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -11043,11 +9873,7 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -11082,11 +9908,7 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -11121,11 +9943,7 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -11160,11 +9978,7 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -11199,11 +10013,7 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -11238,11 +10048,7 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -11277,11 +10083,7 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -11316,11 +10118,7 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -11351,15 +10149,11 @@
         <v>0</v>
       </c>
       <c r="I279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -11394,11 +10188,7 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -11433,11 +10223,7 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -11468,16 +10254,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
+      <c r="M282" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11680,7 +10464,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
@@ -12100,7 +10884,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
@@ -12975,7 +11759,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
@@ -13010,7 +11794,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
@@ -13045,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
@@ -23227,14 +22011,20 @@
         <v>80.17666666666666</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I618" t="n">
         <v>0</v>
       </c>
-      <c r="J618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>73.8</v>
+      </c>
       <c r="K618" t="inlineStr"/>
-      <c r="L618" t="inlineStr"/>
+      <c r="L618" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M618" t="n">
         <v>1</v>
       </c>
@@ -23262,14 +22052,20 @@
         <v>80.00999999999999</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I619" t="n">
         <v>0</v>
       </c>
-      <c r="J619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>74.3</v>
+      </c>
       <c r="K619" t="inlineStr"/>
-      <c r="L619" t="inlineStr"/>
+      <c r="L619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M619" t="n">
         <v>1</v>
       </c>
@@ -23297,14 +22093,20 @@
         <v>79.83333333333331</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I620" t="n">
         <v>0</v>
       </c>
-      <c r="J620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>75.5</v>
+      </c>
       <c r="K620" t="inlineStr"/>
-      <c r="L620" t="inlineStr"/>
+      <c r="L620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M620" t="n">
         <v>1</v>
       </c>
@@ -23332,14 +22134,20 @@
         <v>79.67499999999998</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
       </c>
-      <c r="J621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>75.5</v>
+      </c>
       <c r="K621" t="inlineStr"/>
-      <c r="L621" t="inlineStr"/>
+      <c r="L621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M621" t="n">
         <v>1</v>
       </c>
@@ -23374,7 +22182,11 @@
       </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr"/>
-      <c r="L622" t="inlineStr"/>
+      <c r="L622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M622" t="n">
         <v>1</v>
       </c>
@@ -23409,7 +22221,11 @@
       </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr"/>
-      <c r="L623" t="inlineStr"/>
+      <c r="L623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M623" t="n">
         <v>1</v>
       </c>
@@ -23444,7 +22260,11 @@
       </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr"/>
-      <c r="L624" t="inlineStr"/>
+      <c r="L624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M624" t="n">
         <v>1</v>
       </c>
@@ -23479,7 +22299,11 @@
       </c>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr"/>
-      <c r="L625" t="inlineStr"/>
+      <c r="L625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M625" t="n">
         <v>1</v>
       </c>
@@ -23514,7 +22338,11 @@
       </c>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr"/>
-      <c r="L626" t="inlineStr"/>
+      <c r="L626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M626" t="n">
         <v>1</v>
       </c>
@@ -23549,7 +22377,11 @@
       </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr"/>
-      <c r="L627" t="inlineStr"/>
+      <c r="L627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M627" t="n">
         <v>1</v>
       </c>
@@ -23584,7 +22416,11 @@
       </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr"/>
-      <c r="L628" t="inlineStr"/>
+      <c r="L628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M628" t="n">
         <v>1</v>
       </c>
@@ -23619,7 +22455,11 @@
       </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr"/>
-      <c r="L629" t="inlineStr"/>
+      <c r="L629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M629" t="n">
         <v>1</v>
       </c>
@@ -23654,7 +22494,11 @@
       </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr"/>
-      <c r="L630" t="inlineStr"/>
+      <c r="L630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M630" t="n">
         <v>1</v>
       </c>
@@ -23689,7 +22533,11 @@
       </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr"/>
-      <c r="L631" t="inlineStr"/>
+      <c r="L631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M631" t="n">
         <v>1</v>
       </c>
@@ -23724,7 +22572,11 @@
       </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr"/>
-      <c r="L632" t="inlineStr"/>
+      <c r="L632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M632" t="n">
         <v>1</v>
       </c>
@@ -23759,7 +22611,11 @@
       </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr"/>
-      <c r="L633" t="inlineStr"/>
+      <c r="L633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M633" t="n">
         <v>1</v>
       </c>
@@ -23794,7 +22650,11 @@
       </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr"/>
-      <c r="L634" t="inlineStr"/>
+      <c r="L634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M634" t="n">
         <v>1</v>
       </c>
@@ -23829,7 +22689,11 @@
       </c>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr"/>
-      <c r="L635" t="inlineStr"/>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M635" t="n">
         <v>1</v>
       </c>
@@ -23864,7 +22728,11 @@
       </c>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr"/>
-      <c r="L636" t="inlineStr"/>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M636" t="n">
         <v>1</v>
       </c>
@@ -23899,7 +22767,11 @@
       </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr"/>
-      <c r="L637" t="inlineStr"/>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M637" t="n">
         <v>1</v>
       </c>
@@ -23934,7 +22806,11 @@
       </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr"/>
-      <c r="L638" t="inlineStr"/>
+      <c r="L638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M638" t="n">
         <v>1</v>
       </c>
@@ -23969,7 +22845,11 @@
       </c>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr"/>
-      <c r="L639" t="inlineStr"/>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M639" t="n">
         <v>1</v>
       </c>
@@ -24004,7 +22884,11 @@
       </c>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr"/>
-      <c r="L640" t="inlineStr"/>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M640" t="n">
         <v>1</v>
       </c>
@@ -24039,7 +22923,11 @@
       </c>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr"/>
-      <c r="L641" t="inlineStr"/>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M641" t="n">
         <v>1</v>
       </c>
@@ -24074,7 +22962,11 @@
       </c>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr"/>
-      <c r="L642" t="inlineStr"/>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M642" t="n">
         <v>1</v>
       </c>
@@ -24109,7 +23001,11 @@
       </c>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr"/>
-      <c r="L643" t="inlineStr"/>
+      <c r="L643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M643" t="n">
         <v>1</v>
       </c>
@@ -24144,7 +23040,11 @@
       </c>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr"/>
-      <c r="L644" t="inlineStr"/>
+      <c r="L644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M644" t="n">
         <v>1</v>
       </c>
@@ -24179,7 +23079,11 @@
       </c>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr"/>
-      <c r="L645" t="inlineStr"/>
+      <c r="L645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M645" t="n">
         <v>1</v>
       </c>
@@ -24214,7 +23118,11 @@
       </c>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr"/>
-      <c r="L646" t="inlineStr"/>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M646" t="n">
         <v>1</v>
       </c>
@@ -24249,7 +23157,11 @@
       </c>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr"/>
-      <c r="L647" t="inlineStr"/>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M647" t="n">
         <v>1</v>
       </c>
@@ -24284,7 +23196,11 @@
       </c>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr"/>
-      <c r="L648" t="inlineStr"/>
+      <c r="L648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M648" t="n">
         <v>1</v>
       </c>
@@ -24319,7 +23235,11 @@
       </c>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr"/>
-      <c r="L649" t="inlineStr"/>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M649" t="n">
         <v>1</v>
       </c>
@@ -24354,7 +23274,11 @@
       </c>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr"/>
-      <c r="L650" t="inlineStr"/>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M650" t="n">
         <v>1</v>
       </c>
@@ -24389,7 +23313,11 @@
       </c>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr"/>
-      <c r="L651" t="inlineStr"/>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M651" t="n">
         <v>1</v>
       </c>
@@ -24424,7 +23352,11 @@
       </c>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr"/>
-      <c r="L652" t="inlineStr"/>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M652" t="n">
         <v>1</v>
       </c>
@@ -24459,7 +23391,11 @@
       </c>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr"/>
-      <c r="L653" t="inlineStr"/>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M653" t="n">
         <v>1</v>
       </c>
@@ -24494,7 +23430,11 @@
       </c>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr"/>
-      <c r="L654" t="inlineStr"/>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M654" t="n">
         <v>1</v>
       </c>
@@ -24529,7 +23469,11 @@
       </c>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr"/>
-      <c r="L655" t="inlineStr"/>
+      <c r="L655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M655" t="n">
         <v>1</v>
       </c>
@@ -24564,7 +23508,11 @@
       </c>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr"/>
-      <c r="L656" t="inlineStr"/>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M656" t="n">
         <v>1</v>
       </c>
@@ -24599,7 +23547,11 @@
       </c>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr"/>
-      <c r="L657" t="inlineStr"/>
+      <c r="L657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M657" t="n">
         <v>1</v>
       </c>
@@ -24634,7 +23586,11 @@
       </c>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr"/>
-      <c r="L658" t="inlineStr"/>
+      <c r="L658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M658" t="n">
         <v>1</v>
       </c>
@@ -24669,7 +23625,11 @@
       </c>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr"/>
-      <c r="L659" t="inlineStr"/>
+      <c r="L659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M659" t="n">
         <v>1</v>
       </c>
@@ -24704,7 +23664,11 @@
       </c>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr"/>
-      <c r="L660" t="inlineStr"/>
+      <c r="L660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M660" t="n">
         <v>1</v>
       </c>
@@ -24739,7 +23703,11 @@
       </c>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr"/>
-      <c r="L661" t="inlineStr"/>
+      <c r="L661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M661" t="n">
         <v>1</v>
       </c>
@@ -24774,7 +23742,11 @@
       </c>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr"/>
-      <c r="L662" t="inlineStr"/>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M662" t="n">
         <v>1</v>
       </c>
@@ -24809,7 +23781,11 @@
       </c>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr"/>
-      <c r="L663" t="inlineStr"/>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M663" t="n">
         <v>1</v>
       </c>
@@ -24844,7 +23820,11 @@
       </c>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr"/>
-      <c r="L664" t="inlineStr"/>
+      <c r="L664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M664" t="n">
         <v>1</v>
       </c>
@@ -24879,7 +23859,11 @@
       </c>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr"/>
-      <c r="L665" t="inlineStr"/>
+      <c r="L665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M665" t="n">
         <v>1</v>
       </c>
@@ -24914,7 +23898,11 @@
       </c>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr"/>
-      <c r="L666" t="inlineStr"/>
+      <c r="L666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M666" t="n">
         <v>1</v>
       </c>
@@ -24949,7 +23937,11 @@
       </c>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr"/>
-      <c r="L667" t="inlineStr"/>
+      <c r="L667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M667" t="n">
         <v>1</v>
       </c>
@@ -24984,7 +23976,11 @@
       </c>
       <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr"/>
-      <c r="L668" t="inlineStr"/>
+      <c r="L668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M668" t="n">
         <v>1</v>
       </c>
@@ -25019,7 +24015,11 @@
       </c>
       <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr"/>
-      <c r="L669" t="inlineStr"/>
+      <c r="L669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M669" t="n">
         <v>1</v>
       </c>
@@ -25054,7 +24054,11 @@
       </c>
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr"/>
-      <c r="L670" t="inlineStr"/>
+      <c r="L670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M670" t="n">
         <v>1</v>
       </c>
@@ -25089,7 +24093,11 @@
       </c>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr"/>
-      <c r="L671" t="inlineStr"/>
+      <c r="L671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M671" t="n">
         <v>1</v>
       </c>
@@ -25124,7 +24132,11 @@
       </c>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr"/>
-      <c r="L672" t="inlineStr"/>
+      <c r="L672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M672" t="n">
         <v>1</v>
       </c>
@@ -25159,7 +24171,11 @@
       </c>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr"/>
-      <c r="L673" t="inlineStr"/>
+      <c r="L673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M673" t="n">
         <v>1</v>
       </c>
@@ -25194,7 +24210,11 @@
       </c>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr"/>
-      <c r="L674" t="inlineStr"/>
+      <c r="L674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M674" t="n">
         <v>1</v>
       </c>
@@ -25229,7 +24249,11 @@
       </c>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr"/>
-      <c r="L675" t="inlineStr"/>
+      <c r="L675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M675" t="n">
         <v>1</v>
       </c>
@@ -25264,7 +24288,11 @@
       </c>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr"/>
-      <c r="L676" t="inlineStr"/>
+      <c r="L676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M676" t="n">
         <v>1</v>
       </c>
@@ -25299,7 +24327,11 @@
       </c>
       <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr"/>
-      <c r="L677" t="inlineStr"/>
+      <c r="L677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M677" t="n">
         <v>1</v>
       </c>
@@ -25334,7 +24366,11 @@
       </c>
       <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr"/>
-      <c r="L678" t="inlineStr"/>
+      <c r="L678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M678" t="n">
         <v>1</v>
       </c>
@@ -25369,7 +24405,11 @@
       </c>
       <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr"/>
-      <c r="L679" t="inlineStr"/>
+      <c r="L679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M679" t="n">
         <v>1</v>
       </c>
@@ -25404,7 +24444,11 @@
       </c>
       <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr"/>
-      <c r="L680" t="inlineStr"/>
+      <c r="L680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M680" t="n">
         <v>1</v>
       </c>
@@ -25439,7 +24483,11 @@
       </c>
       <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr"/>
-      <c r="L681" t="inlineStr"/>
+      <c r="L681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M681" t="n">
         <v>1</v>
       </c>
@@ -25474,7 +24522,11 @@
       </c>
       <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr"/>
-      <c r="L682" t="inlineStr"/>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M682" t="n">
         <v>1</v>
       </c>
@@ -25509,7 +24561,11 @@
       </c>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr"/>
-      <c r="L683" t="inlineStr"/>
+      <c r="L683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M683" t="n">
         <v>1</v>
       </c>
@@ -25544,7 +24600,11 @@
       </c>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr"/>
-      <c r="L684" t="inlineStr"/>
+      <c r="L684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M684" t="n">
         <v>1</v>
       </c>
@@ -25579,7 +24639,11 @@
       </c>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr"/>
-      <c r="L685" t="inlineStr"/>
+      <c r="L685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M685" t="n">
         <v>1</v>
       </c>
@@ -25614,7 +24678,11 @@
       </c>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr"/>
-      <c r="L686" t="inlineStr"/>
+      <c r="L686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M686" t="n">
         <v>1</v>
       </c>
@@ -25649,7 +24717,11 @@
       </c>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr"/>
-      <c r="L687" t="inlineStr"/>
+      <c r="L687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M687" t="n">
         <v>1</v>
       </c>
@@ -25684,7 +24756,11 @@
       </c>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr"/>
-      <c r="L688" t="inlineStr"/>
+      <c r="L688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M688" t="n">
         <v>1</v>
       </c>
@@ -25719,7 +24795,11 @@
       </c>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr"/>
-      <c r="L689" t="inlineStr"/>
+      <c r="L689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M689" t="n">
         <v>1</v>
       </c>
@@ -25754,7 +24834,11 @@
       </c>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr"/>
-      <c r="L690" t="inlineStr"/>
+      <c r="L690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M690" t="n">
         <v>1</v>
       </c>
@@ -25789,7 +24873,11 @@
       </c>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr"/>
-      <c r="L691" t="inlineStr"/>
+      <c r="L691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M691" t="n">
         <v>1</v>
       </c>
@@ -25824,7 +24912,11 @@
       </c>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr"/>
-      <c r="L692" t="inlineStr"/>
+      <c r="L692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M692" t="n">
         <v>1</v>
       </c>
@@ -25859,7 +24951,11 @@
       </c>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr"/>
-      <c r="L693" t="inlineStr"/>
+      <c r="L693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M693" t="n">
         <v>1</v>
       </c>
@@ -25887,18 +24983,16 @@
         <v>74.8383333333334</v>
       </c>
       <c r="H694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I694" t="n">
         <v>0</v>
       </c>
-      <c r="J694" t="n">
-        <v>71</v>
-      </c>
+      <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr"/>
       <c r="L694" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M694" t="n">
@@ -25928,14 +25022,12 @@
         <v>74.71666666666673</v>
       </c>
       <c r="H695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I695" t="n">
         <v>0</v>
       </c>
-      <c r="J695" t="n">
-        <v>70.3</v>
-      </c>
+      <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr"/>
       <c r="L695" t="inlineStr">
         <is>
@@ -25969,14 +25061,12 @@
         <v>74.60833333333339</v>
       </c>
       <c r="H696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I696" t="n">
         <v>0</v>
       </c>
-      <c r="J696" t="n">
-        <v>69.8</v>
-      </c>
+      <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr"/>
       <c r="L696" t="inlineStr">
         <is>
@@ -26010,14 +25100,12 @@
         <v>74.51166666666673</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I697" t="n">
         <v>0</v>
       </c>
-      <c r="J697" t="n">
-        <v>70</v>
-      </c>
+      <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr"/>
       <c r="L697" t="inlineStr">
         <is>
@@ -26090,14 +25178,12 @@
         <v>74.30333333333341</v>
       </c>
       <c r="H699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I699" t="n">
         <v>0</v>
       </c>
-      <c r="J699" t="n">
-        <v>70.40000000000001</v>
-      </c>
+      <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr"/>
       <c r="L699" t="inlineStr">
         <is>
@@ -26131,14 +25217,12 @@
         <v>74.2033333333334</v>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I700" t="n">
         <v>0</v>
       </c>
-      <c r="J700" t="n">
-        <v>70.59999999999999</v>
-      </c>
+      <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr"/>
       <c r="L700" t="inlineStr">
         <is>
@@ -26172,14 +25256,12 @@
         <v>74.10666666666674</v>
       </c>
       <c r="H701" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I701" t="n">
         <v>0</v>
       </c>
-      <c r="J701" t="n">
-        <v>70.59999999999999</v>
-      </c>
+      <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr"/>
       <c r="L701" t="inlineStr">
         <is>
@@ -26213,14 +25295,12 @@
         <v>74.0033333333334</v>
       </c>
       <c r="H702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I702" t="n">
         <v>0</v>
       </c>
-      <c r="J702" t="n">
-        <v>70.8</v>
-      </c>
+      <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr"/>
       <c r="L702" t="inlineStr">
         <is>
@@ -26254,14 +25334,12 @@
         <v>73.90166666666673</v>
       </c>
       <c r="H703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I703" t="n">
         <v>0</v>
       </c>
-      <c r="J703" t="n">
-        <v>70.8</v>
-      </c>
+      <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr"/>
       <c r="L703" t="inlineStr">
         <is>
@@ -26295,14 +25373,12 @@
         <v>73.79166666666673</v>
       </c>
       <c r="H704" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I704" t="n">
         <v>0</v>
       </c>
-      <c r="J704" t="n">
-        <v>70.8</v>
-      </c>
+      <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr"/>
       <c r="L704" t="inlineStr">
         <is>
@@ -26418,14 +25494,12 @@
         <v>73.49500000000008</v>
       </c>
       <c r="H707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I707" t="n">
         <v>0</v>
       </c>
-      <c r="J707" t="n">
-        <v>71.2</v>
-      </c>
+      <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr"/>
       <c r="L707" t="inlineStr">
         <is>
@@ -26459,14 +25533,12 @@
         <v>73.41000000000008</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I708" t="n">
         <v>0</v>
       </c>
-      <c r="J708" t="n">
-        <v>71.5</v>
-      </c>
+      <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr"/>
       <c r="L708" t="inlineStr">
         <is>
@@ -26500,14 +25572,12 @@
         <v>73.33833333333341</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I709" t="n">
         <v>0</v>
       </c>
-      <c r="J709" t="n">
-        <v>71.59999999999999</v>
-      </c>
+      <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr"/>
       <c r="L709" t="inlineStr">
         <is>
@@ -26541,14 +25611,12 @@
         <v>73.26333333333341</v>
       </c>
       <c r="H710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I710" t="n">
         <v>0</v>
       </c>
-      <c r="J710" t="n">
-        <v>71.7</v>
-      </c>
+      <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr"/>
       <c r="L710" t="inlineStr">
         <is>
@@ -26582,14 +25650,12 @@
         <v>73.19500000000008</v>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I711" t="n">
         <v>0</v>
       </c>
-      <c r="J711" t="n">
-        <v>71.7</v>
-      </c>
+      <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr"/>
       <c r="L711" t="inlineStr">
         <is>
@@ -26623,14 +25689,12 @@
         <v>73.1283333333334</v>
       </c>
       <c r="H712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I712" t="n">
         <v>0</v>
       </c>
-      <c r="J712" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr"/>
       <c r="L712" t="inlineStr">
         <is>
@@ -26664,14 +25728,12 @@
         <v>73.04000000000006</v>
       </c>
       <c r="H713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I713" t="n">
         <v>0</v>
       </c>
-      <c r="J713" t="n">
-        <v>72.3</v>
-      </c>
+      <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr"/>
       <c r="L713" t="inlineStr">
         <is>
@@ -26705,14 +25767,12 @@
         <v>72.97000000000007</v>
       </c>
       <c r="H714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I714" t="n">
         <v>0</v>
       </c>
-      <c r="J714" t="n">
-        <v>72.3</v>
-      </c>
+      <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr"/>
       <c r="L714" t="inlineStr">
         <is>
@@ -26746,14 +25806,12 @@
         <v>72.8933333333334</v>
       </c>
       <c r="H715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I715" t="n">
         <v>0</v>
       </c>
-      <c r="J715" t="n">
-        <v>72.09999999999999</v>
-      </c>
+      <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr"/>
       <c r="L715" t="inlineStr">
         <is>
@@ -26787,14 +25845,12 @@
         <v>72.81500000000007</v>
       </c>
       <c r="H716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I716" t="n">
         <v>0</v>
       </c>
-      <c r="J716" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr"/>
       <c r="L716" t="inlineStr">
         <is>
@@ -26828,14 +25884,12 @@
         <v>72.74666666666673</v>
       </c>
       <c r="H717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I717" t="n">
         <v>0</v>
       </c>
-      <c r="J717" t="n">
-        <v>71.8</v>
-      </c>
+      <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr"/>
       <c r="L717" t="inlineStr">
         <is>
@@ -26869,14 +25923,12 @@
         <v>72.67833333333338</v>
       </c>
       <c r="H718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I718" t="n">
         <v>0</v>
       </c>
-      <c r="J718" t="n">
-        <v>71.8</v>
-      </c>
+      <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr"/>
       <c r="L718" t="inlineStr">
         <is>
@@ -26910,14 +25962,12 @@
         <v>72.6183333333334</v>
       </c>
       <c r="H719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I719" t="n">
         <v>0</v>
       </c>
-      <c r="J719" t="n">
-        <v>72</v>
-      </c>
+      <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr"/>
       <c r="L719" t="inlineStr">
         <is>
@@ -26951,14 +26001,12 @@
         <v>72.56333333333342</v>
       </c>
       <c r="H720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I720" t="n">
         <v>0</v>
       </c>
-      <c r="J720" t="n">
-        <v>72.09999999999999</v>
-      </c>
+      <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr"/>
       <c r="L720" t="inlineStr">
         <is>
@@ -26992,14 +26040,12 @@
         <v>72.52166666666675</v>
       </c>
       <c r="H721" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I721" t="n">
         <v>0</v>
       </c>
-      <c r="J721" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr"/>
       <c r="L721" t="inlineStr">
         <is>
@@ -27033,14 +26079,12 @@
         <v>72.49000000000007</v>
       </c>
       <c r="H722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I722" t="n">
         <v>0</v>
       </c>
-      <c r="J722" t="n">
-        <v>72.8</v>
-      </c>
+      <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr"/>
       <c r="L722" t="inlineStr">
         <is>
@@ -27074,14 +26118,12 @@
         <v>72.46166666666674</v>
       </c>
       <c r="H723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I723" t="n">
         <v>0</v>
       </c>
-      <c r="J723" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr"/>
       <c r="L723" t="inlineStr">
         <is>
@@ -27115,14 +26157,12 @@
         <v>72.42833333333341</v>
       </c>
       <c r="H724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I724" t="n">
         <v>0</v>
       </c>
-      <c r="J724" t="n">
-        <v>73</v>
-      </c>
+      <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr"/>
       <c r="L724" t="inlineStr">
         <is>
@@ -27156,14 +26196,12 @@
         <v>72.39666666666673</v>
       </c>
       <c r="H725" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I725" t="n">
         <v>0</v>
       </c>
-      <c r="J725" t="n">
-        <v>73.3</v>
-      </c>
+      <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr"/>
       <c r="L725" t="inlineStr">
         <is>
@@ -27197,14 +26235,12 @@
         <v>72.36166666666672</v>
       </c>
       <c r="H726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I726" t="n">
         <v>0</v>
       </c>
-      <c r="J726" t="n">
-        <v>73.2</v>
-      </c>
+      <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr"/>
       <c r="L726" t="inlineStr">
         <is>
@@ -27238,14 +26274,12 @@
         <v>72.33166666666672</v>
       </c>
       <c r="H727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I727" t="n">
         <v>0</v>
       </c>
-      <c r="J727" t="n">
-        <v>73.2</v>
-      </c>
+      <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr"/>
       <c r="L727" t="inlineStr">
         <is>
@@ -27279,14 +26313,12 @@
         <v>72.30333333333338</v>
       </c>
       <c r="H728" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I728" t="n">
         <v>0</v>
       </c>
-      <c r="J728" t="n">
-        <v>73</v>
-      </c>
+      <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr"/>
       <c r="L728" t="inlineStr">
         <is>
@@ -27320,14 +26352,12 @@
         <v>72.27000000000005</v>
       </c>
       <c r="H729" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I729" t="n">
         <v>0</v>
       </c>
-      <c r="J729" t="n">
-        <v>73.2</v>
-      </c>
+      <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr"/>
       <c r="L729" t="inlineStr">
         <is>
@@ -27361,14 +26391,12 @@
         <v>72.23500000000007</v>
       </c>
       <c r="H730" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I730" t="n">
         <v>0</v>
       </c>
-      <c r="J730" t="n">
-        <v>73</v>
-      </c>
+      <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr"/>
       <c r="L730" t="inlineStr">
         <is>
@@ -27402,14 +26430,12 @@
         <v>72.20666666666673</v>
       </c>
       <c r="H731" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I731" t="n">
         <v>0</v>
       </c>
-      <c r="J731" t="n">
-        <v>73.09999999999999</v>
-      </c>
+      <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr"/>
       <c r="L731" t="inlineStr">
         <is>
@@ -27443,14 +26469,12 @@
         <v>72.1633333333334</v>
       </c>
       <c r="H732" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I732" t="n">
         <v>0</v>
       </c>
-      <c r="J732" t="n">
-        <v>73.2</v>
-      </c>
+      <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr"/>
       <c r="L732" t="inlineStr">
         <is>
@@ -27484,14 +26508,12 @@
         <v>72.13166666666672</v>
       </c>
       <c r="H733" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I733" t="n">
         <v>0</v>
       </c>
-      <c r="J733" t="n">
-        <v>72.8</v>
-      </c>
+      <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr"/>
       <c r="L733" t="inlineStr">
         <is>
@@ -27525,14 +26547,12 @@
         <v>72.10000000000005</v>
       </c>
       <c r="H734" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I734" t="n">
         <v>0</v>
       </c>
-      <c r="J734" t="n">
-        <v>72.90000000000001</v>
-      </c>
+      <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr"/>
       <c r="L734" t="inlineStr">
         <is>
@@ -27566,14 +26586,12 @@
         <v>72.07166666666672</v>
       </c>
       <c r="H735" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I735" t="n">
         <v>0</v>
       </c>
-      <c r="J735" t="n">
-        <v>72.8</v>
-      </c>
+      <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr"/>
       <c r="L735" t="inlineStr">
         <is>
@@ -27607,14 +26625,12 @@
         <v>72.06500000000005</v>
       </c>
       <c r="H736" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I736" t="n">
         <v>0</v>
       </c>
-      <c r="J736" t="n">
-        <v>72.7</v>
-      </c>
+      <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr"/>
       <c r="L736" t="inlineStr">
         <is>
@@ -27648,14 +26664,12 @@
         <v>72.05833333333339</v>
       </c>
       <c r="H737" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I737" t="n">
         <v>0</v>
       </c>
-      <c r="J737" t="n">
-        <v>72.8</v>
-      </c>
+      <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr"/>
       <c r="L737" t="inlineStr">
         <is>
@@ -27689,14 +26703,12 @@
         <v>72.0683333333334</v>
       </c>
       <c r="H738" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I738" t="n">
         <v>0</v>
       </c>
-      <c r="J738" t="n">
-        <v>73.09999999999999</v>
-      </c>
+      <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr"/>
       <c r="L738" t="inlineStr">
         <is>
@@ -27730,14 +26742,12 @@
         <v>72.07333333333341</v>
       </c>
       <c r="H739" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I739" t="n">
         <v>0</v>
       </c>
-      <c r="J739" t="n">
-        <v>73.2</v>
-      </c>
+      <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr"/>
       <c r="L739" t="inlineStr">
         <is>
@@ -27771,14 +26781,12 @@
         <v>72.08666666666673</v>
       </c>
       <c r="H740" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I740" t="n">
         <v>0</v>
       </c>
-      <c r="J740" t="n">
-        <v>73.2</v>
-      </c>
+      <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr"/>
       <c r="L740" t="inlineStr">
         <is>
@@ -27812,14 +26820,12 @@
         <v>72.10166666666672</v>
       </c>
       <c r="H741" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I741" t="n">
         <v>0</v>
       </c>
-      <c r="J741" t="n">
-        <v>73.5</v>
-      </c>
+      <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr"/>
       <c r="L741" t="inlineStr">
         <is>
@@ -27853,14 +26859,12 @@
         <v>72.11833333333338</v>
       </c>
       <c r="H742" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I742" t="n">
         <v>0</v>
       </c>
-      <c r="J742" t="n">
-        <v>73.5</v>
-      </c>
+      <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr"/>
       <c r="L742" t="inlineStr">
         <is>
@@ -27894,14 +26898,12 @@
         <v>72.13666666666673</v>
       </c>
       <c r="H743" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I743" t="n">
         <v>0</v>
       </c>
-      <c r="J743" t="n">
-        <v>73.5</v>
-      </c>
+      <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr"/>
       <c r="L743" t="inlineStr">
         <is>
@@ -27935,14 +26937,12 @@
         <v>72.14666666666673</v>
       </c>
       <c r="H744" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I744" t="n">
         <v>0</v>
       </c>
-      <c r="J744" t="n">
-        <v>73.59999999999999</v>
-      </c>
+      <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr"/>
       <c r="L744" t="inlineStr">
         <is>
@@ -27976,14 +26976,12 @@
         <v>72.15500000000006</v>
       </c>
       <c r="H745" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I745" t="n">
         <v>0</v>
       </c>
-      <c r="J745" t="n">
-        <v>73.3</v>
-      </c>
+      <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr"/>
       <c r="L745" t="inlineStr">
         <is>
@@ -28017,14 +27015,12 @@
         <v>72.17000000000006</v>
       </c>
       <c r="H746" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I746" t="n">
         <v>0</v>
       </c>
-      <c r="J746" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr"/>
       <c r="L746" t="inlineStr">
         <is>
@@ -28058,14 +27054,12 @@
         <v>72.17833333333338</v>
       </c>
       <c r="H747" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I747" t="n">
         <v>0</v>
       </c>
-      <c r="J747" t="n">
-        <v>73.2</v>
-      </c>
+      <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr"/>
       <c r="L747" t="inlineStr">
         <is>
@@ -28099,14 +27093,12 @@
         <v>72.18500000000004</v>
       </c>
       <c r="H748" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I748" t="n">
         <v>0</v>
       </c>
-      <c r="J748" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr"/>
       <c r="L748" t="inlineStr">
         <is>
@@ -28140,14 +27132,12 @@
         <v>72.20666666666672</v>
       </c>
       <c r="H749" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I749" t="n">
         <v>0</v>
       </c>
-      <c r="J749" t="n">
-        <v>73.5</v>
-      </c>
+      <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr"/>
       <c r="L749" t="inlineStr">
         <is>
@@ -28181,14 +27171,12 @@
         <v>72.25666666666672</v>
       </c>
       <c r="H750" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I750" t="n">
         <v>0</v>
       </c>
-      <c r="J750" t="n">
-        <v>73.5</v>
-      </c>
+      <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr"/>
       <c r="L750" t="inlineStr">
         <is>
@@ -28222,14 +27210,12 @@
         <v>72.30333333333338</v>
       </c>
       <c r="H751" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I751" t="n">
         <v>0</v>
       </c>
-      <c r="J751" t="n">
-        <v>74.09999999999999</v>
-      </c>
+      <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr"/>
       <c r="L751" t="inlineStr">
         <is>
@@ -28263,14 +27249,12 @@
         <v>72.37333333333339</v>
       </c>
       <c r="H752" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I752" t="n">
         <v>0</v>
       </c>
-      <c r="J752" t="n">
-        <v>74</v>
-      </c>
+      <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr"/>
       <c r="L752" t="inlineStr">
         <is>
@@ -28304,14 +27288,12 @@
         <v>72.43166666666671</v>
       </c>
       <c r="H753" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I753" t="n">
         <v>0</v>
       </c>
-      <c r="J753" t="n">
-        <v>74.40000000000001</v>
-      </c>
+      <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr"/>
       <c r="L753" t="inlineStr">
         <is>
@@ -29515,14 +28497,12 @@
         <v>73.65166666666671</v>
       </c>
       <c r="H784" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I784" t="n">
         <v>0</v>
       </c>
-      <c r="J784" t="n">
-        <v>72.7</v>
-      </c>
+      <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr"/>
       <c r="L784" t="inlineStr">
         <is>
@@ -29556,14 +28536,12 @@
         <v>73.63666666666673</v>
       </c>
       <c r="H785" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I785" t="n">
         <v>0</v>
       </c>
-      <c r="J785" t="n">
-        <v>72.7</v>
-      </c>
+      <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr"/>
       <c r="L785" t="inlineStr">
         <is>
@@ -29597,14 +28575,12 @@
         <v>73.6333333333334</v>
       </c>
       <c r="H786" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I786" t="n">
         <v>0</v>
       </c>
-      <c r="J786" t="n">
-        <v>72.40000000000001</v>
-      </c>
+      <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr"/>
       <c r="L786" t="inlineStr">
         <is>
@@ -29638,14 +28614,12 @@
         <v>73.62166666666673</v>
       </c>
       <c r="H787" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I787" t="n">
         <v>0</v>
       </c>
-      <c r="J787" t="n">
-        <v>72.5</v>
-      </c>
+      <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr"/>
       <c r="L787" t="inlineStr">
         <is>
@@ -29679,14 +28653,12 @@
         <v>73.61500000000007</v>
       </c>
       <c r="H788" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I788" t="n">
         <v>0</v>
       </c>
-      <c r="J788" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr"/>
       <c r="L788" t="inlineStr">
         <is>
@@ -29720,14 +28692,12 @@
         <v>73.60666666666674</v>
       </c>
       <c r="H789" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I789" t="n">
         <v>0</v>
       </c>
-      <c r="J789" t="n">
-        <v>72.8</v>
-      </c>
+      <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr"/>
       <c r="L789" t="inlineStr">
         <is>
@@ -29761,14 +28731,12 @@
         <v>73.59666666666674</v>
       </c>
       <c r="H790" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I790" t="n">
         <v>0</v>
       </c>
-      <c r="J790" t="n">
-        <v>72.7</v>
-      </c>
+      <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr"/>
       <c r="L790" t="inlineStr">
         <is>
@@ -29802,14 +28770,12 @@
         <v>73.5883333333334</v>
       </c>
       <c r="H791" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I791" t="n">
         <v>0</v>
       </c>
-      <c r="J791" t="n">
-        <v>72.7</v>
-      </c>
+      <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr"/>
       <c r="L791" t="inlineStr">
         <is>
@@ -29843,14 +28809,12 @@
         <v>73.59500000000007</v>
       </c>
       <c r="H792" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I792" t="n">
         <v>0</v>
       </c>
-      <c r="J792" t="n">
-        <v>72.8</v>
-      </c>
+      <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr"/>
       <c r="L792" t="inlineStr">
         <is>
@@ -29884,14 +28848,12 @@
         <v>73.57500000000007</v>
       </c>
       <c r="H793" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I793" t="n">
         <v>0</v>
       </c>
-      <c r="J793" t="n">
-        <v>72.8</v>
-      </c>
+      <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr"/>
       <c r="L793" t="inlineStr">
         <is>
@@ -29925,14 +28887,12 @@
         <v>73.56166666666675</v>
       </c>
       <c r="H794" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I794" t="n">
         <v>0</v>
       </c>
-      <c r="J794" t="n">
-        <v>71.7</v>
-      </c>
+      <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr"/>
       <c r="L794" t="inlineStr">
         <is>
@@ -29966,14 +28926,12 @@
         <v>73.54666666666677</v>
       </c>
       <c r="H795" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I795" t="n">
         <v>0</v>
       </c>
-      <c r="J795" t="n">
-        <v>72</v>
-      </c>
+      <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr"/>
       <c r="L795" t="inlineStr">
         <is>
@@ -30007,14 +28965,12 @@
         <v>73.53166666666675</v>
       </c>
       <c r="H796" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I796" t="n">
         <v>0</v>
       </c>
-      <c r="J796" t="n">
-        <v>71.7</v>
-      </c>
+      <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr"/>
       <c r="L796" t="inlineStr">
         <is>
@@ -30048,14 +29004,12 @@
         <v>73.51166666666674</v>
       </c>
       <c r="H797" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I797" t="n">
         <v>0</v>
       </c>
-      <c r="J797" t="n">
-        <v>71.90000000000001</v>
-      </c>
+      <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr"/>
       <c r="L797" t="inlineStr">
         <is>
@@ -30089,14 +29043,12 @@
         <v>73.49000000000007</v>
       </c>
       <c r="H798" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I798" t="n">
         <v>0</v>
       </c>
-      <c r="J798" t="n">
-        <v>71.90000000000001</v>
-      </c>
+      <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr"/>
       <c r="L798" t="inlineStr">
         <is>
@@ -30130,14 +29082,12 @@
         <v>73.48000000000006</v>
       </c>
       <c r="H799" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I799" t="n">
         <v>0</v>
       </c>
-      <c r="J799" t="n">
-        <v>72</v>
-      </c>
+      <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr"/>
       <c r="L799" t="inlineStr">
         <is>
@@ -30171,14 +29121,12 @@
         <v>73.46666666666674</v>
       </c>
       <c r="H800" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I800" t="n">
         <v>0</v>
       </c>
-      <c r="J800" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr"/>
       <c r="L800" t="inlineStr">
         <is>
@@ -30212,14 +29160,12 @@
         <v>73.44833333333342</v>
       </c>
       <c r="H801" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I801" t="n">
         <v>0</v>
       </c>
-      <c r="J801" t="n">
-        <v>72.5</v>
-      </c>
+      <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr"/>
       <c r="L801" t="inlineStr">
         <is>
@@ -30253,14 +29199,12 @@
         <v>73.43000000000008</v>
       </c>
       <c r="H802" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I802" t="n">
         <v>0</v>
       </c>
-      <c r="J802" t="n">
-        <v>72.5</v>
-      </c>
+      <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr"/>
       <c r="L802" t="inlineStr">
         <is>
@@ -30294,14 +29238,12 @@
         <v>73.4083333333334</v>
       </c>
       <c r="H803" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I803" t="n">
         <v>0</v>
       </c>
-      <c r="J803" t="n">
-        <v>72.40000000000001</v>
-      </c>
+      <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr"/>
       <c r="L803" t="inlineStr">
         <is>
@@ -30335,14 +29277,12 @@
         <v>73.37500000000007</v>
       </c>
       <c r="H804" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I804" t="n">
         <v>0</v>
       </c>
-      <c r="J804" t="n">
-        <v>72.3</v>
-      </c>
+      <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr"/>
       <c r="L804" t="inlineStr">
         <is>
@@ -30376,14 +29316,12 @@
         <v>73.35833333333341</v>
       </c>
       <c r="H805" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I805" t="n">
         <v>0</v>
       </c>
-      <c r="J805" t="n">
-        <v>72.5</v>
-      </c>
+      <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr"/>
       <c r="L805" t="inlineStr">
         <is>
@@ -30417,14 +29355,12 @@
         <v>73.34000000000007</v>
       </c>
       <c r="H806" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I806" t="n">
         <v>0</v>
       </c>
-      <c r="J806" t="n">
-        <v>72.40000000000001</v>
-      </c>
+      <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr"/>
       <c r="L806" t="inlineStr">
         <is>
@@ -30458,14 +29394,12 @@
         <v>73.32500000000007</v>
       </c>
       <c r="H807" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I807" t="n">
         <v>0</v>
       </c>
-      <c r="J807" t="n">
-        <v>72.40000000000001</v>
-      </c>
+      <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr"/>
       <c r="L807" t="inlineStr">
         <is>
@@ -30499,14 +29433,12 @@
         <v>73.31000000000009</v>
       </c>
       <c r="H808" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I808" t="n">
         <v>0</v>
       </c>
-      <c r="J808" t="n">
-        <v>72.5</v>
-      </c>
+      <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr"/>
       <c r="L808" t="inlineStr">
         <is>
@@ -30540,14 +29472,12 @@
         <v>73.29666666666675</v>
       </c>
       <c r="H809" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I809" t="n">
         <v>0</v>
       </c>
-      <c r="J809" t="n">
-        <v>72.09999999999999</v>
-      </c>
+      <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr"/>
       <c r="L809" t="inlineStr">
         <is>
@@ -30581,14 +29511,12 @@
         <v>73.27166666666675</v>
       </c>
       <c r="H810" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I810" t="n">
         <v>0</v>
       </c>
-      <c r="J810" t="n">
-        <v>72.7</v>
-      </c>
+      <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr"/>
       <c r="L810" t="inlineStr">
         <is>
@@ -30622,14 +29550,12 @@
         <v>73.25500000000008</v>
       </c>
       <c r="H811" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I811" t="n">
         <v>0</v>
       </c>
-      <c r="J811" t="n">
-        <v>72.7</v>
-      </c>
+      <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr"/>
       <c r="L811" t="inlineStr">
         <is>
@@ -30663,14 +29589,12 @@
         <v>73.22500000000008</v>
       </c>
       <c r="H812" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I812" t="n">
         <v>0</v>
       </c>
-      <c r="J812" t="n">
-        <v>72.5</v>
-      </c>
+      <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr"/>
       <c r="L812" t="inlineStr">
         <is>
@@ -30704,14 +29628,12 @@
         <v>73.19666666666674</v>
       </c>
       <c r="H813" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I813" t="n">
         <v>0</v>
       </c>
-      <c r="J813" t="n">
-        <v>72.7</v>
-      </c>
+      <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr"/>
       <c r="L813" t="inlineStr">
         <is>
@@ -30745,14 +29667,12 @@
         <v>73.15833333333343</v>
       </c>
       <c r="H814" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I814" t="n">
         <v>0</v>
       </c>
-      <c r="J814" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr"/>
       <c r="L814" t="inlineStr">
         <is>
@@ -30786,14 +29706,12 @@
         <v>73.12333333333342</v>
       </c>
       <c r="H815" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I815" t="n">
         <v>0</v>
       </c>
-      <c r="J815" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr"/>
       <c r="L815" t="inlineStr">
         <is>
@@ -30827,14 +29745,12 @@
         <v>73.09166666666675</v>
       </c>
       <c r="H816" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I816" t="n">
         <v>0</v>
       </c>
-      <c r="J816" t="n">
-        <v>72.7</v>
-      </c>
+      <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr"/>
       <c r="L816" t="inlineStr">
         <is>
@@ -30868,14 +29784,12 @@
         <v>73.06666666666676</v>
       </c>
       <c r="H817" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I817" t="n">
         <v>0</v>
       </c>
-      <c r="J817" t="n">
-        <v>72.90000000000001</v>
-      </c>
+      <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr"/>
       <c r="L817" t="inlineStr">
         <is>
@@ -30909,14 +29823,12 @@
         <v>73.04166666666676</v>
       </c>
       <c r="H818" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I818" t="n">
         <v>0</v>
       </c>
-      <c r="J818" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr"/>
       <c r="L818" t="inlineStr">
         <is>
@@ -30950,14 +29862,12 @@
         <v>73.02000000000011</v>
       </c>
       <c r="H819" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I819" t="n">
         <v>0</v>
       </c>
-      <c r="J819" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr"/>
       <c r="L819" t="inlineStr">
         <is>
@@ -30991,14 +29901,12 @@
         <v>73.00333333333343</v>
       </c>
       <c r="H820" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I820" t="n">
         <v>0</v>
       </c>
-      <c r="J820" t="n">
-        <v>73.59999999999999</v>
-      </c>
+      <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr"/>
       <c r="L820" t="inlineStr">
         <is>
@@ -31032,14 +29940,12 @@
         <v>72.9850000000001</v>
       </c>
       <c r="H821" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I821" t="n">
         <v>0</v>
       </c>
-      <c r="J821" t="n">
-        <v>73.8</v>
-      </c>
+      <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr"/>
       <c r="L821" t="inlineStr">
         <is>
@@ -31073,14 +29979,12 @@
         <v>72.97000000000008</v>
       </c>
       <c r="H822" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I822" t="n">
         <v>0</v>
       </c>
-      <c r="J822" t="n">
-        <v>73.8</v>
-      </c>
+      <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr"/>
       <c r="L822" t="inlineStr">
         <is>
@@ -31114,14 +30018,12 @@
         <v>72.95333333333342</v>
       </c>
       <c r="H823" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I823" t="n">
         <v>0</v>
       </c>
-      <c r="J823" t="n">
-        <v>73.59999999999999</v>
-      </c>
+      <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr"/>
       <c r="L823" t="inlineStr">
         <is>
@@ -31155,14 +30057,12 @@
         <v>72.94000000000008</v>
       </c>
       <c r="H824" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I824" t="n">
         <v>0</v>
       </c>
-      <c r="J824" t="n">
-        <v>73.09999999999999</v>
-      </c>
+      <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr"/>
       <c r="L824" t="inlineStr">
         <is>
@@ -31196,14 +30096,12 @@
         <v>72.93000000000008</v>
       </c>
       <c r="H825" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I825" t="n">
         <v>0</v>
       </c>
-      <c r="J825" t="n">
-        <v>73.3</v>
-      </c>
+      <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr"/>
       <c r="L825" t="inlineStr">
         <is>
@@ -31237,14 +30135,12 @@
         <v>72.91833333333342</v>
       </c>
       <c r="H826" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I826" t="n">
         <v>0</v>
       </c>
-      <c r="J826" t="n">
-        <v>73</v>
-      </c>
+      <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr"/>
       <c r="L826" t="inlineStr">
         <is>
@@ -31278,14 +30174,12 @@
         <v>72.91333333333341</v>
       </c>
       <c r="H827" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I827" t="n">
         <v>0</v>
       </c>
-      <c r="J827" t="n">
-        <v>72.40000000000001</v>
-      </c>
+      <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr"/>
       <c r="L827" t="inlineStr">
         <is>
@@ -31319,14 +30213,12 @@
         <v>72.89833333333341</v>
       </c>
       <c r="H828" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I828" t="n">
         <v>0</v>
       </c>
-      <c r="J828" t="n">
-        <v>72.40000000000001</v>
-      </c>
+      <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr"/>
       <c r="L828" t="inlineStr">
         <is>
@@ -31360,14 +30252,12 @@
         <v>72.87500000000007</v>
       </c>
       <c r="H829" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I829" t="n">
         <v>0</v>
       </c>
-      <c r="J829" t="n">
-        <v>72.40000000000001</v>
-      </c>
+      <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr"/>
       <c r="L829" t="inlineStr">
         <is>
@@ -31401,14 +30291,12 @@
         <v>72.85000000000008</v>
       </c>
       <c r="H830" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I830" t="n">
         <v>0</v>
       </c>
-      <c r="J830" t="n">
-        <v>72.7</v>
-      </c>
+      <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr"/>
       <c r="L830" t="inlineStr">
         <is>
@@ -31442,14 +30330,12 @@
         <v>72.83166666666673</v>
       </c>
       <c r="H831" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I831" t="n">
         <v>0</v>
       </c>
-      <c r="J831" t="n">
-        <v>72.40000000000001</v>
-      </c>
+      <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr"/>
       <c r="L831" t="inlineStr">
         <is>
@@ -31483,14 +30369,12 @@
         <v>72.81500000000007</v>
       </c>
       <c r="H832" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I832" t="n">
         <v>0</v>
       </c>
-      <c r="J832" t="n">
-        <v>72.7</v>
-      </c>
+      <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr"/>
       <c r="L832" t="inlineStr">
         <is>
@@ -31524,14 +30408,12 @@
         <v>72.7883333333334</v>
       </c>
       <c r="H833" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I833" t="n">
         <v>0</v>
       </c>
-      <c r="J833" t="n">
-        <v>72.7</v>
-      </c>
+      <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr"/>
       <c r="L833" t="inlineStr">
         <is>
@@ -31565,14 +30447,12 @@
         <v>72.76666666666672</v>
       </c>
       <c r="H834" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I834" t="n">
         <v>0</v>
       </c>
-      <c r="J834" t="n">
-        <v>72.7</v>
-      </c>
+      <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr"/>
       <c r="L834" t="inlineStr">
         <is>
@@ -31606,14 +30486,12 @@
         <v>72.7433333333334</v>
       </c>
       <c r="H835" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I835" t="n">
         <v>0</v>
       </c>
-      <c r="J835" t="n">
-        <v>72.7</v>
-      </c>
+      <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr"/>
       <c r="L835" t="inlineStr">
         <is>
@@ -31647,14 +30525,12 @@
         <v>72.7183333333334</v>
       </c>
       <c r="H836" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I836" t="n">
         <v>0</v>
       </c>
-      <c r="J836" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr"/>
       <c r="L836" t="inlineStr">
         <is>
@@ -31688,14 +30564,12 @@
         <v>72.70000000000006</v>
       </c>
       <c r="H837" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I837" t="n">
         <v>0</v>
       </c>
-      <c r="J837" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr"/>
       <c r="L837" t="inlineStr">
         <is>
@@ -31729,14 +30603,12 @@
         <v>72.67666666666672</v>
       </c>
       <c r="H838" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I838" t="n">
         <v>0</v>
       </c>
-      <c r="J838" t="n">
-        <v>72.5</v>
-      </c>
+      <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr"/>
       <c r="L838" t="inlineStr">
         <is>
@@ -31770,14 +30642,12 @@
         <v>72.65833333333339</v>
       </c>
       <c r="H839" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I839" t="n">
         <v>0</v>
       </c>
-      <c r="J839" t="n">
-        <v>72.40000000000001</v>
-      </c>
+      <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr"/>
       <c r="L839" t="inlineStr">
         <is>
@@ -31811,14 +30681,12 @@
         <v>72.65166666666673</v>
       </c>
       <c r="H840" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I840" t="n">
         <v>0</v>
       </c>
-      <c r="J840" t="n">
-        <v>72.3</v>
-      </c>
+      <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr"/>
       <c r="L840" t="inlineStr">
         <is>
@@ -31852,14 +30720,12 @@
         <v>72.64500000000005</v>
       </c>
       <c r="H841" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I841" t="n">
         <v>0</v>
       </c>
-      <c r="J841" t="n">
-        <v>72.3</v>
-      </c>
+      <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr"/>
       <c r="L841" t="inlineStr">
         <is>
@@ -31893,14 +30759,12 @@
         <v>72.64166666666672</v>
       </c>
       <c r="H842" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I842" t="n">
         <v>0</v>
       </c>
-      <c r="J842" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr"/>
       <c r="L842" t="inlineStr">
         <is>
@@ -31934,14 +30798,12 @@
         <v>72.63833333333339</v>
       </c>
       <c r="H843" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I843" t="n">
         <v>0</v>
       </c>
-      <c r="J843" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr"/>
       <c r="L843" t="inlineStr">
         <is>
@@ -31975,14 +30837,12 @@
         <v>72.63000000000007</v>
       </c>
       <c r="H844" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I844" t="n">
         <v>0</v>
       </c>
-      <c r="J844" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr"/>
       <c r="L844" t="inlineStr">
         <is>
@@ -32016,14 +30876,12 @@
         <v>72.63000000000007</v>
       </c>
       <c r="H845" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I845" t="n">
         <v>0</v>
       </c>
-      <c r="J845" t="n">
-        <v>72.5</v>
-      </c>
+      <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr"/>
       <c r="L845" t="inlineStr">
         <is>
@@ -32057,14 +30915,12 @@
         <v>72.62333333333339</v>
       </c>
       <c r="H846" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I846" t="n">
         <v>0</v>
       </c>
-      <c r="J846" t="n">
-        <v>72.40000000000001</v>
-      </c>
+      <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr"/>
       <c r="L846" t="inlineStr">
         <is>
@@ -32098,14 +30954,12 @@
         <v>72.62333333333339</v>
       </c>
       <c r="H847" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I847" t="n">
         <v>0</v>
       </c>
-      <c r="J847" t="n">
-        <v>72.5</v>
-      </c>
+      <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr"/>
       <c r="L847" t="inlineStr">
         <is>
@@ -32139,14 +30993,12 @@
         <v>72.61333333333339</v>
       </c>
       <c r="H848" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I848" t="n">
         <v>0</v>
       </c>
-      <c r="J848" t="n">
-        <v>72.3</v>
-      </c>
+      <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr"/>
       <c r="L848" t="inlineStr">
         <is>
@@ -32180,14 +31032,12 @@
         <v>72.60833333333338</v>
       </c>
       <c r="H849" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I849" t="n">
         <v>0</v>
       </c>
-      <c r="J849" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr"/>
       <c r="L849" t="inlineStr">
         <is>
@@ -32221,14 +31071,12 @@
         <v>72.59500000000004</v>
       </c>
       <c r="H850" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I850" t="n">
         <v>0</v>
       </c>
-      <c r="J850" t="n">
-        <v>72.5</v>
-      </c>
+      <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr"/>
       <c r="L850" t="inlineStr">
         <is>
@@ -32262,14 +31110,12 @@
         <v>72.58000000000003</v>
       </c>
       <c r="H851" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I851" t="n">
         <v>0</v>
       </c>
-      <c r="J851" t="n">
-        <v>71.90000000000001</v>
-      </c>
+      <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr"/>
       <c r="L851" t="inlineStr">
         <is>
@@ -32303,14 +31149,12 @@
         <v>72.5616666666667</v>
       </c>
       <c r="H852" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I852" t="n">
         <v>0</v>
       </c>
-      <c r="J852" t="n">
-        <v>71.8</v>
-      </c>
+      <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr"/>
       <c r="L852" t="inlineStr">
         <is>
@@ -32344,14 +31188,12 @@
         <v>72.57000000000002</v>
       </c>
       <c r="H853" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I853" t="n">
         <v>0</v>
       </c>
-      <c r="J853" t="n">
-        <v>72</v>
-      </c>
+      <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr"/>
       <c r="L853" t="inlineStr">
         <is>
@@ -32385,14 +31227,12 @@
         <v>72.57833333333336</v>
       </c>
       <c r="H854" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I854" t="n">
         <v>0</v>
       </c>
-      <c r="J854" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr"/>
       <c r="L854" t="inlineStr">
         <is>
@@ -32426,14 +31266,12 @@
         <v>72.59000000000002</v>
       </c>
       <c r="H855" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I855" t="n">
         <v>0</v>
       </c>
-      <c r="J855" t="n">
-        <v>72.09999999999999</v>
-      </c>
+      <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr"/>
       <c r="L855" t="inlineStr">
         <is>
@@ -32467,14 +31305,12 @@
         <v>72.59666666666671</v>
       </c>
       <c r="H856" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I856" t="n">
         <v>0</v>
       </c>
-      <c r="J856" t="n">
-        <v>72.3</v>
-      </c>
+      <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr"/>
       <c r="L856" t="inlineStr">
         <is>
@@ -32508,14 +31344,12 @@
         <v>72.59166666666671</v>
       </c>
       <c r="H857" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I857" t="n">
         <v>0</v>
       </c>
-      <c r="J857" t="n">
-        <v>72.2</v>
-      </c>
+      <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr"/>
       <c r="L857" t="inlineStr">
         <is>
@@ -32549,14 +31383,12 @@
         <v>72.58500000000005</v>
       </c>
       <c r="H858" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I858" t="n">
         <v>0</v>
       </c>
-      <c r="J858" t="n">
-        <v>71.90000000000001</v>
-      </c>
+      <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr"/>
       <c r="L858" t="inlineStr">
         <is>
@@ -32590,14 +31422,12 @@
         <v>72.57500000000006</v>
       </c>
       <c r="H859" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I859" t="n">
         <v>0</v>
       </c>
-      <c r="J859" t="n">
-        <v>72.09999999999999</v>
-      </c>
+      <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr"/>
       <c r="L859" t="inlineStr">
         <is>
@@ -32631,14 +31461,12 @@
         <v>72.56833333333338</v>
       </c>
       <c r="H860" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I860" t="n">
         <v>0</v>
       </c>
-      <c r="J860" t="n">
-        <v>71.8</v>
-      </c>
+      <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr"/>
       <c r="L860" t="inlineStr">
         <is>
@@ -32672,14 +31500,12 @@
         <v>72.56333333333338</v>
       </c>
       <c r="H861" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I861" t="n">
         <v>0</v>
       </c>
-      <c r="J861" t="n">
-        <v>72</v>
-      </c>
+      <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr"/>
       <c r="L861" t="inlineStr">
         <is>
@@ -32713,14 +31539,12 @@
         <v>72.55333333333337</v>
       </c>
       <c r="H862" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I862" t="n">
         <v>0</v>
       </c>
-      <c r="J862" t="n">
-        <v>72</v>
-      </c>
+      <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr"/>
       <c r="L862" t="inlineStr">
         <is>
@@ -32754,14 +31578,12 @@
         <v>72.54833333333337</v>
       </c>
       <c r="H863" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I863" t="n">
         <v>0</v>
       </c>
-      <c r="J863" t="n">
-        <v>72.3</v>
-      </c>
+      <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr"/>
       <c r="L863" t="inlineStr">
         <is>
@@ -32795,14 +31617,12 @@
         <v>72.55833333333337</v>
       </c>
       <c r="H864" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I864" t="n">
         <v>0</v>
       </c>
-      <c r="J864" t="n">
-        <v>72</v>
-      </c>
+      <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr"/>
       <c r="L864" t="inlineStr">
         <is>
@@ -32836,14 +31656,12 @@
         <v>72.56166666666671</v>
       </c>
       <c r="H865" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I865" t="n">
         <v>0</v>
       </c>
-      <c r="J865" t="n">
-        <v>72.3</v>
-      </c>
+      <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr"/>
       <c r="L865" t="inlineStr">
         <is>
@@ -32877,14 +31695,12 @@
         <v>72.56166666666671</v>
       </c>
       <c r="H866" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I866" t="n">
         <v>0</v>
       </c>
-      <c r="J866" t="n">
-        <v>72.5</v>
-      </c>
+      <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr"/>
       <c r="L866" t="inlineStr">
         <is>
@@ -32918,14 +31734,12 @@
         <v>72.56833333333337</v>
       </c>
       <c r="H867" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I867" t="n">
         <v>0</v>
       </c>
-      <c r="J867" t="n">
-        <v>72.5</v>
-      </c>
+      <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr"/>
       <c r="L867" t="inlineStr">
         <is>
@@ -32959,14 +31773,12 @@
         <v>72.56500000000004</v>
       </c>
       <c r="H868" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I868" t="n">
         <v>0</v>
       </c>
-      <c r="J868" t="n">
-        <v>72.5</v>
-      </c>
+      <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr"/>
       <c r="L868" t="inlineStr">
         <is>
@@ -33000,14 +31812,12 @@
         <v>72.56333333333338</v>
       </c>
       <c r="H869" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I869" t="n">
         <v>0</v>
       </c>
-      <c r="J869" t="n">
-        <v>72.7</v>
-      </c>
+      <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr"/>
       <c r="L869" t="inlineStr">
         <is>
@@ -33041,14 +31851,12 @@
         <v>72.56166666666671</v>
       </c>
       <c r="H870" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I870" t="n">
         <v>0</v>
       </c>
-      <c r="J870" t="n">
-        <v>72.7</v>
-      </c>
+      <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr"/>
       <c r="L870" t="inlineStr">
         <is>
@@ -33082,14 +31890,12 @@
         <v>72.5566666666667</v>
       </c>
       <c r="H871" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I871" t="n">
         <v>0</v>
       </c>
-      <c r="J871" t="n">
-        <v>72.40000000000001</v>
-      </c>
+      <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr"/>
       <c r="L871" t="inlineStr">
         <is>
@@ -33123,14 +31929,12 @@
         <v>72.5516666666667</v>
       </c>
       <c r="H872" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I872" t="n">
         <v>0</v>
       </c>
-      <c r="J872" t="n">
-        <v>72.3</v>
-      </c>
+      <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr"/>
       <c r="L872" t="inlineStr">
         <is>
@@ -33164,14 +31968,12 @@
         <v>72.54166666666671</v>
       </c>
       <c r="H873" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I873" t="n">
         <v>0</v>
       </c>
-      <c r="J873" t="n">
-        <v>72.40000000000001</v>
-      </c>
+      <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr"/>
       <c r="L873" t="inlineStr">
         <is>
@@ -33205,14 +32007,12 @@
         <v>72.5366666666667</v>
       </c>
       <c r="H874" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I874" t="n">
         <v>0</v>
       </c>
-      <c r="J874" t="n">
-        <v>72.09999999999999</v>
-      </c>
+      <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr"/>
       <c r="L874" t="inlineStr">
         <is>
@@ -33246,14 +32046,12 @@
         <v>72.53000000000004</v>
       </c>
       <c r="H875" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I875" t="n">
         <v>0</v>
       </c>
-      <c r="J875" t="n">
-        <v>72.3</v>
-      </c>
+      <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr"/>
       <c r="L875" t="inlineStr">
         <is>
@@ -33287,14 +32085,12 @@
         <v>72.51666666666671</v>
       </c>
       <c r="H876" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I876" t="n">
         <v>0</v>
       </c>
-      <c r="J876" t="n">
-        <v>72.09999999999999</v>
-      </c>
+      <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr"/>
       <c r="L876" t="inlineStr">
         <is>
@@ -33328,14 +32124,12 @@
         <v>72.49500000000005</v>
       </c>
       <c r="H877" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I877" t="n">
         <v>0</v>
       </c>
-      <c r="J877" t="n">
-        <v>72.3</v>
-      </c>
+      <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr"/>
       <c r="L877" t="inlineStr">
         <is>
@@ -33369,14 +32163,12 @@
         <v>72.48666666666671</v>
       </c>
       <c r="H878" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I878" t="n">
         <v>0</v>
       </c>
-      <c r="J878" t="n">
-        <v>72.3</v>
-      </c>
+      <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr"/>
       <c r="L878" t="inlineStr">
         <is>
@@ -33410,14 +32202,12 @@
         <v>72.47500000000004</v>
       </c>
       <c r="H879" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I879" t="n">
         <v>0</v>
       </c>
-      <c r="J879" t="n">
-        <v>72.90000000000001</v>
-      </c>
+      <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr"/>
       <c r="L879" t="inlineStr">
         <is>
@@ -33451,14 +32241,12 @@
         <v>72.46166666666669</v>
       </c>
       <c r="H880" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I880" t="n">
         <v>0</v>
       </c>
-      <c r="J880" t="n">
-        <v>72.90000000000001</v>
-      </c>
+      <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr"/>
       <c r="L880" t="inlineStr">
         <is>
@@ -33492,14 +32280,12 @@
         <v>72.45666666666669</v>
       </c>
       <c r="H881" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I881" t="n">
         <v>0</v>
       </c>
-      <c r="J881" t="n">
-        <v>73</v>
-      </c>
+      <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr"/>
       <c r="L881" t="inlineStr">
         <is>
@@ -33533,14 +32319,12 @@
         <v>72.45666666666669</v>
       </c>
       <c r="H882" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I882" t="n">
         <v>0</v>
       </c>
-      <c r="J882" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr"/>
       <c r="L882" t="inlineStr">
         <is>
@@ -33574,14 +32358,12 @@
         <v>72.47666666666669</v>
       </c>
       <c r="H883" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I883" t="n">
         <v>0</v>
       </c>
-      <c r="J883" t="n">
-        <v>73.7</v>
-      </c>
+      <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr"/>
       <c r="L883" t="inlineStr">
         <is>
@@ -33615,14 +32397,12 @@
         <v>72.50166666666669</v>
       </c>
       <c r="H884" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I884" t="n">
         <v>0</v>
       </c>
-      <c r="J884" t="n">
-        <v>74.40000000000001</v>
-      </c>
+      <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr"/>
       <c r="L884" t="inlineStr">
         <is>
@@ -33656,14 +32436,12 @@
         <v>72.52333333333335</v>
       </c>
       <c r="H885" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I885" t="n">
         <v>0</v>
       </c>
-      <c r="J885" t="n">
-        <v>74.2</v>
-      </c>
+      <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr"/>
       <c r="L885" t="inlineStr">
         <is>
@@ -33697,14 +32475,12 @@
         <v>72.54666666666668</v>
       </c>
       <c r="H886" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I886" t="n">
         <v>0</v>
       </c>
-      <c r="J886" t="n">
-        <v>74.09999999999999</v>
-      </c>
+      <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr"/>
       <c r="L886" t="inlineStr">
         <is>
@@ -33738,14 +32514,12 @@
         <v>72.56333333333335</v>
       </c>
       <c r="H887" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I887" t="n">
         <v>0</v>
       </c>
-      <c r="J887" t="n">
-        <v>74.3</v>
-      </c>
+      <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr"/>
       <c r="L887" t="inlineStr">
         <is>
@@ -34130,14 +32904,12 @@
         <v>72.72166666666668</v>
       </c>
       <c r="H897" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I897" t="n">
         <v>0</v>
       </c>
-      <c r="J897" t="n">
-        <v>72.90000000000001</v>
-      </c>
+      <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr"/>
       <c r="L897" t="inlineStr">
         <is>
@@ -34171,14 +32943,12 @@
         <v>72.73500000000003</v>
       </c>
       <c r="H898" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I898" t="n">
         <v>0</v>
       </c>
-      <c r="J898" t="n">
-        <v>72.8</v>
-      </c>
+      <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr"/>
       <c r="L898" t="inlineStr">
         <is>
@@ -34212,14 +32982,12 @@
         <v>72.75166666666669</v>
       </c>
       <c r="H899" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I899" t="n">
         <v>0</v>
       </c>
-      <c r="J899" t="n">
-        <v>73.3</v>
-      </c>
+      <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr"/>
       <c r="L899" t="inlineStr">
         <is>
@@ -34253,14 +33021,12 @@
         <v>72.76833333333336</v>
       </c>
       <c r="H900" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I900" t="n">
         <v>0</v>
       </c>
-      <c r="J900" t="n">
-        <v>73.5</v>
-      </c>
+      <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr"/>
       <c r="L900" t="inlineStr">
         <is>
@@ -34294,14 +33060,12 @@
         <v>72.78833333333336</v>
       </c>
       <c r="H901" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I901" t="n">
         <v>0</v>
       </c>
-      <c r="J901" t="n">
-        <v>73.7</v>
-      </c>
+      <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr"/>
       <c r="L901" t="inlineStr">
         <is>
@@ -34335,14 +33099,12 @@
         <v>72.80833333333335</v>
       </c>
       <c r="H902" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I902" t="n">
         <v>0</v>
       </c>
-      <c r="J902" t="n">
-        <v>73.90000000000001</v>
-      </c>
+      <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr"/>
       <c r="L902" t="inlineStr">
         <is>
@@ -36485,18 +35247,16 @@
         <v>0</v>
       </c>
       <c r="I957" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr"/>
       <c r="L957" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M957" t="n">
-        <v>1</v>
-      </c>
+      <c r="M957" t="inlineStr"/>
     </row>
     <row r="958">
       <c r="A958" s="1" t="n">
@@ -36528,12 +35288,10 @@
       </c>
       <c r="J958" t="inlineStr"/>
       <c r="K958" t="inlineStr"/>
-      <c r="L958" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M958" t="inlineStr"/>
+      <c r="L958" t="inlineStr"/>
+      <c r="M958" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="959">
       <c r="A959" s="1" t="n">
@@ -36596,7 +35354,7 @@
         <v>0</v>
       </c>
       <c r="I960" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J960" t="inlineStr"/>
       <c r="K960" t="inlineStr"/>
@@ -36631,7 +35389,7 @@
         <v>0</v>
       </c>
       <c r="I961" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J961" t="inlineStr"/>
       <c r="K961" t="inlineStr"/>
@@ -37296,7 +36054,7 @@
         <v>0</v>
       </c>
       <c r="I980" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr"/>
@@ -43558,20 +42316,14 @@
         <v>74.14666666666673</v>
       </c>
       <c r="H1159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1159" t="n">
         <v>0</v>
       </c>
-      <c r="J1159" t="n">
-        <v>71.90000000000001</v>
-      </c>
+      <c r="J1159" t="inlineStr"/>
       <c r="K1159" t="inlineStr"/>
-      <c r="L1159" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L1159" t="inlineStr"/>
       <c r="M1159" t="n">
         <v>1</v>
       </c>
@@ -43606,11 +42358,7 @@
       </c>
       <c r="J1160" t="inlineStr"/>
       <c r="K1160" t="inlineStr"/>
-      <c r="L1160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1160" t="inlineStr"/>
       <c r="M1160" t="n">
         <v>1</v>
       </c>
@@ -43638,20 +42386,14 @@
         <v>74.09166666666673</v>
       </c>
       <c r="H1161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1161" t="n">
         <v>0</v>
       </c>
-      <c r="J1161" t="n">
-        <v>72.7</v>
-      </c>
+      <c r="J1161" t="inlineStr"/>
       <c r="K1161" t="inlineStr"/>
-      <c r="L1161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1161" t="inlineStr"/>
       <c r="M1161" t="n">
         <v>1</v>
       </c>
@@ -43679,20 +42421,14 @@
         <v>74.05000000000005</v>
       </c>
       <c r="H1162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1162" t="n">
         <v>0</v>
       </c>
-      <c r="J1162" t="n">
-        <v>72.8</v>
-      </c>
+      <c r="J1162" t="inlineStr"/>
       <c r="K1162" t="inlineStr"/>
-      <c r="L1162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1162" t="inlineStr"/>
       <c r="M1162" t="n">
         <v>1</v>
       </c>
@@ -43720,20 +42456,14 @@
         <v>74.01166666666673</v>
       </c>
       <c r="H1163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1163" t="n">
         <v>0</v>
       </c>
-      <c r="J1163" t="n">
-        <v>72.5</v>
-      </c>
+      <c r="J1163" t="inlineStr"/>
       <c r="K1163" t="inlineStr"/>
-      <c r="L1163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1163" t="inlineStr"/>
       <c r="M1163" t="n">
         <v>1</v>
       </c>
@@ -43761,20 +42491,14 @@
         <v>73.97166666666672</v>
       </c>
       <c r="H1164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1164" t="n">
         <v>0</v>
       </c>
-      <c r="J1164" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J1164" t="inlineStr"/>
       <c r="K1164" t="inlineStr"/>
-      <c r="L1164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1164" t="inlineStr"/>
       <c r="M1164" t="n">
         <v>1</v>
       </c>
@@ -43802,20 +42526,14 @@
         <v>73.95166666666672</v>
       </c>
       <c r="H1165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1165" t="n">
         <v>0</v>
       </c>
-      <c r="J1165" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J1165" t="inlineStr"/>
       <c r="K1165" t="inlineStr"/>
-      <c r="L1165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1165" t="inlineStr"/>
       <c r="M1165" t="n">
         <v>1</v>
       </c>
@@ -43843,20 +42561,14 @@
         <v>73.93333333333339</v>
       </c>
       <c r="H1166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1166" t="n">
         <v>0</v>
       </c>
-      <c r="J1166" t="n">
-        <v>73.5</v>
-      </c>
+      <c r="J1166" t="inlineStr"/>
       <c r="K1166" t="inlineStr"/>
-      <c r="L1166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1166" t="inlineStr"/>
       <c r="M1166" t="n">
         <v>1</v>
       </c>
@@ -43884,20 +42596,14 @@
         <v>73.91666666666673</v>
       </c>
       <c r="H1167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1167" t="n">
         <v>0</v>
       </c>
-      <c r="J1167" t="n">
-        <v>73.59999999999999</v>
-      </c>
+      <c r="J1167" t="inlineStr"/>
       <c r="K1167" t="inlineStr"/>
-      <c r="L1167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1167" t="inlineStr"/>
       <c r="M1167" t="n">
         <v>1</v>
       </c>
@@ -43925,20 +42631,14 @@
         <v>73.90666666666672</v>
       </c>
       <c r="H1168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1168" t="n">
         <v>0</v>
       </c>
-      <c r="J1168" t="n">
-        <v>73.5</v>
-      </c>
+      <c r="J1168" t="inlineStr"/>
       <c r="K1168" t="inlineStr"/>
-      <c r="L1168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1168" t="inlineStr"/>
       <c r="M1168" t="n">
         <v>1</v>
       </c>
@@ -43966,20 +42666,14 @@
         <v>73.89333333333339</v>
       </c>
       <c r="H1169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1169" t="n">
         <v>0</v>
       </c>
-      <c r="J1169" t="n">
-        <v>73.59999999999999</v>
-      </c>
+      <c r="J1169" t="inlineStr"/>
       <c r="K1169" t="inlineStr"/>
-      <c r="L1169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1169" t="inlineStr"/>
       <c r="M1169" t="n">
         <v>1</v>
       </c>
@@ -44014,11 +42708,7 @@
       </c>
       <c r="J1170" t="inlineStr"/>
       <c r="K1170" t="inlineStr"/>
-      <c r="L1170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1170" t="inlineStr"/>
       <c r="M1170" t="n">
         <v>1</v>
       </c>
@@ -44053,11 +42743,7 @@
       </c>
       <c r="J1171" t="inlineStr"/>
       <c r="K1171" t="inlineStr"/>
-      <c r="L1171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1171" t="inlineStr"/>
       <c r="M1171" t="n">
         <v>1</v>
       </c>
@@ -44085,20 +42771,14 @@
         <v>73.83666666666673</v>
       </c>
       <c r="H1172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1172" t="n">
         <v>0</v>
       </c>
-      <c r="J1172" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J1172" t="inlineStr"/>
       <c r="K1172" t="inlineStr"/>
-      <c r="L1172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1172" t="inlineStr"/>
       <c r="M1172" t="n">
         <v>1</v>
       </c>
@@ -44133,11 +42813,7 @@
       </c>
       <c r="J1173" t="inlineStr"/>
       <c r="K1173" t="inlineStr"/>
-      <c r="L1173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1173" t="inlineStr"/>
       <c r="M1173" t="n">
         <v>1</v>
       </c>
@@ -44172,11 +42848,7 @@
       </c>
       <c r="J1174" t="inlineStr"/>
       <c r="K1174" t="inlineStr"/>
-      <c r="L1174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1174" t="inlineStr"/>
       <c r="M1174" t="n">
         <v>1</v>
       </c>
@@ -44211,11 +42883,7 @@
       </c>
       <c r="J1175" t="inlineStr"/>
       <c r="K1175" t="inlineStr"/>
-      <c r="L1175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1175" t="inlineStr"/>
       <c r="M1175" t="n">
         <v>1</v>
       </c>
@@ -44243,20 +42911,14 @@
         <v>73.75166666666674</v>
       </c>
       <c r="H1176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1176" t="n">
         <v>0</v>
       </c>
-      <c r="J1176" t="n">
-        <v>73.3</v>
-      </c>
+      <c r="J1176" t="inlineStr"/>
       <c r="K1176" t="inlineStr"/>
-      <c r="L1176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1176" t="inlineStr"/>
       <c r="M1176" t="n">
         <v>1</v>
       </c>
@@ -44291,11 +42953,7 @@
       </c>
       <c r="J1177" t="inlineStr"/>
       <c r="K1177" t="inlineStr"/>
-      <c r="L1177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1177" t="inlineStr"/>
       <c r="M1177" t="n">
         <v>1</v>
       </c>
@@ -44330,11 +42988,7 @@
       </c>
       <c r="J1178" t="inlineStr"/>
       <c r="K1178" t="inlineStr"/>
-      <c r="L1178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1178" t="inlineStr"/>
       <c r="M1178" t="n">
         <v>1</v>
       </c>
@@ -44369,11 +43023,7 @@
       </c>
       <c r="J1179" t="inlineStr"/>
       <c r="K1179" t="inlineStr"/>
-      <c r="L1179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1179" t="inlineStr"/>
       <c r="M1179" t="n">
         <v>1</v>
       </c>
@@ -44408,11 +43058,7 @@
       </c>
       <c r="J1180" t="inlineStr"/>
       <c r="K1180" t="inlineStr"/>
-      <c r="L1180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1180" t="inlineStr"/>
       <c r="M1180" t="n">
         <v>1</v>
       </c>
@@ -44447,11 +43093,7 @@
       </c>
       <c r="J1181" t="inlineStr"/>
       <c r="K1181" t="inlineStr"/>
-      <c r="L1181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1181" t="inlineStr"/>
       <c r="M1181" t="n">
         <v>1</v>
       </c>
@@ -44486,11 +43128,7 @@
       </c>
       <c r="J1182" t="inlineStr"/>
       <c r="K1182" t="inlineStr"/>
-      <c r="L1182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1182" t="inlineStr"/>
       <c r="M1182" t="n">
         <v>1</v>
       </c>
@@ -44525,11 +43163,7 @@
       </c>
       <c r="J1183" t="inlineStr"/>
       <c r="K1183" t="inlineStr"/>
-      <c r="L1183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1183" t="inlineStr"/>
       <c r="M1183" t="n">
         <v>1</v>
       </c>
@@ -44557,20 +43191,14 @@
         <v>73.5033333333334</v>
       </c>
       <c r="H1184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1184" t="n">
         <v>0</v>
       </c>
-      <c r="J1184" t="n">
-        <v>73</v>
-      </c>
+      <c r="J1184" t="inlineStr"/>
       <c r="K1184" t="inlineStr"/>
-      <c r="L1184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1184" t="inlineStr"/>
       <c r="M1184" t="n">
         <v>1</v>
       </c>
@@ -44598,20 +43226,14 @@
         <v>73.47666666666673</v>
       </c>
       <c r="H1185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1185" t="n">
         <v>0</v>
       </c>
-      <c r="J1185" t="n">
-        <v>73</v>
-      </c>
+      <c r="J1185" t="inlineStr"/>
       <c r="K1185" t="inlineStr"/>
-      <c r="L1185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1185" t="inlineStr"/>
       <c r="M1185" t="n">
         <v>1</v>
       </c>
@@ -44639,20 +43261,14 @@
         <v>73.45000000000006</v>
       </c>
       <c r="H1186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1186" t="n">
         <v>0</v>
       </c>
-      <c r="J1186" t="n">
-        <v>73</v>
-      </c>
+      <c r="J1186" t="inlineStr"/>
       <c r="K1186" t="inlineStr"/>
-      <c r="L1186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1186" t="inlineStr"/>
       <c r="M1186" t="n">
         <v>1</v>
       </c>
@@ -44680,20 +43296,14 @@
         <v>73.43500000000007</v>
       </c>
       <c r="H1187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1187" t="n">
         <v>0</v>
       </c>
-      <c r="J1187" t="n">
-        <v>73.2</v>
-      </c>
+      <c r="J1187" t="inlineStr"/>
       <c r="K1187" t="inlineStr"/>
-      <c r="L1187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1187" t="inlineStr"/>
       <c r="M1187" t="n">
         <v>1</v>
       </c>
@@ -44721,20 +43331,14 @@
         <v>73.40333333333339</v>
       </c>
       <c r="H1188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1188" t="n">
         <v>0</v>
       </c>
-      <c r="J1188" t="n">
-        <v>72.90000000000001</v>
-      </c>
+      <c r="J1188" t="inlineStr"/>
       <c r="K1188" t="inlineStr"/>
-      <c r="L1188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1188" t="inlineStr"/>
       <c r="M1188" t="n">
         <v>1</v>
       </c>
@@ -44762,20 +43366,14 @@
         <v>73.37333333333339</v>
       </c>
       <c r="H1189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1189" t="n">
         <v>0</v>
       </c>
-      <c r="J1189" t="n">
-        <v>72.90000000000001</v>
-      </c>
+      <c r="J1189" t="inlineStr"/>
       <c r="K1189" t="inlineStr"/>
-      <c r="L1189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1189" t="inlineStr"/>
       <c r="M1189" t="n">
         <v>1</v>
       </c>
@@ -44803,20 +43401,14 @@
         <v>73.33666666666673</v>
       </c>
       <c r="H1190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1190" t="n">
         <v>0</v>
       </c>
-      <c r="J1190" t="n">
-        <v>72.90000000000001</v>
-      </c>
+      <c r="J1190" t="inlineStr"/>
       <c r="K1190" t="inlineStr"/>
-      <c r="L1190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1190" t="inlineStr"/>
       <c r="M1190" t="n">
         <v>1</v>
       </c>
@@ -44844,20 +43436,14 @@
         <v>73.30333333333338</v>
       </c>
       <c r="H1191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1191" t="n">
         <v>0</v>
       </c>
-      <c r="J1191" t="n">
-        <v>72.8</v>
-      </c>
+      <c r="J1191" t="inlineStr"/>
       <c r="K1191" t="inlineStr"/>
-      <c r="L1191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1191" t="inlineStr"/>
       <c r="M1191" t="n">
         <v>1</v>
       </c>
@@ -44885,20 +43471,14 @@
         <v>73.27166666666673</v>
       </c>
       <c r="H1192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1192" t="n">
         <v>0</v>
       </c>
-      <c r="J1192" t="n">
-        <v>72.5</v>
-      </c>
+      <c r="J1192" t="inlineStr"/>
       <c r="K1192" t="inlineStr"/>
-      <c r="L1192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1192" t="inlineStr"/>
       <c r="M1192" t="n">
         <v>1</v>
       </c>
@@ -44926,20 +43506,14 @@
         <v>73.24333333333338</v>
       </c>
       <c r="H1193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1193" t="n">
         <v>0</v>
       </c>
-      <c r="J1193" t="n">
-        <v>72.40000000000001</v>
-      </c>
+      <c r="J1193" t="inlineStr"/>
       <c r="K1193" t="inlineStr"/>
-      <c r="L1193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1193" t="inlineStr"/>
       <c r="M1193" t="n">
         <v>1</v>
       </c>
@@ -44967,20 +43541,14 @@
         <v>73.21666666666673</v>
       </c>
       <c r="H1194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1194" t="n">
         <v>0</v>
       </c>
-      <c r="J1194" t="n">
-        <v>72.5</v>
-      </c>
+      <c r="J1194" t="inlineStr"/>
       <c r="K1194" t="inlineStr"/>
-      <c r="L1194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1194" t="inlineStr"/>
       <c r="M1194" t="n">
         <v>1</v>
       </c>
@@ -45008,20 +43576,14 @@
         <v>73.18333333333339</v>
       </c>
       <c r="H1195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1195" t="n">
         <v>0</v>
       </c>
-      <c r="J1195" t="n">
-        <v>72.5</v>
-      </c>
+      <c r="J1195" t="inlineStr"/>
       <c r="K1195" t="inlineStr"/>
-      <c r="L1195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1195" t="inlineStr"/>
       <c r="M1195" t="n">
         <v>1</v>
       </c>
@@ -45049,20 +43611,14 @@
         <v>73.16000000000007</v>
       </c>
       <c r="H1196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1196" t="n">
         <v>0</v>
       </c>
-      <c r="J1196" t="n">
-        <v>72.5</v>
-      </c>
+      <c r="J1196" t="inlineStr"/>
       <c r="K1196" t="inlineStr"/>
-      <c r="L1196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1196" t="inlineStr"/>
       <c r="M1196" t="n">
         <v>1</v>
       </c>
@@ -45090,20 +43646,14 @@
         <v>73.1433333333334</v>
       </c>
       <c r="H1197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1197" t="n">
         <v>0</v>
       </c>
-      <c r="J1197" t="n">
-        <v>72.8</v>
-      </c>
+      <c r="J1197" t="inlineStr"/>
       <c r="K1197" t="inlineStr"/>
-      <c r="L1197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1197" t="inlineStr"/>
       <c r="M1197" t="n">
         <v>1</v>
       </c>
@@ -45131,20 +43681,14 @@
         <v>73.1333333333334</v>
       </c>
       <c r="H1198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1198" t="n">
         <v>0</v>
       </c>
-      <c r="J1198" t="n">
-        <v>73.40000000000001</v>
-      </c>
+      <c r="J1198" t="inlineStr"/>
       <c r="K1198" t="inlineStr"/>
-      <c r="L1198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1198" t="inlineStr"/>
       <c r="M1198" t="n">
         <v>1</v>
       </c>
@@ -45172,20 +43716,14 @@
         <v>73.13000000000007</v>
       </c>
       <c r="H1199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1199" t="n">
         <v>0</v>
       </c>
-      <c r="J1199" t="n">
-        <v>73.09999999999999</v>
-      </c>
+      <c r="J1199" t="inlineStr"/>
       <c r="K1199" t="inlineStr"/>
-      <c r="L1199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1199" t="inlineStr"/>
       <c r="M1199" t="n">
         <v>1</v>
       </c>
@@ -45213,20 +43751,14 @@
         <v>73.1133333333334</v>
       </c>
       <c r="H1200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1200" t="n">
         <v>0</v>
       </c>
-      <c r="J1200" t="n">
-        <v>73.5</v>
-      </c>
+      <c r="J1200" t="inlineStr"/>
       <c r="K1200" t="inlineStr"/>
-      <c r="L1200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1200" t="inlineStr"/>
       <c r="M1200" t="n">
         <v>1</v>
       </c>
@@ -45254,20 +43786,14 @@
         <v>73.10166666666673</v>
       </c>
       <c r="H1201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1201" t="n">
         <v>0</v>
       </c>
-      <c r="J1201" t="n">
-        <v>73.3</v>
-      </c>
+      <c r="J1201" t="inlineStr"/>
       <c r="K1201" t="inlineStr"/>
-      <c r="L1201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1201" t="inlineStr"/>
       <c r="M1201" t="n">
         <v>1</v>
       </c>
@@ -45295,20 +43821,14 @@
         <v>73.0933333333334</v>
       </c>
       <c r="H1202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1202" t="n">
         <v>0</v>
       </c>
-      <c r="J1202" t="n">
-        <v>72.8</v>
-      </c>
+      <c r="J1202" t="inlineStr"/>
       <c r="K1202" t="inlineStr"/>
-      <c r="L1202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1202" t="inlineStr"/>
       <c r="M1202" t="n">
         <v>1</v>
       </c>
@@ -45336,20 +43856,14 @@
         <v>73.08666666666674</v>
       </c>
       <c r="H1203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1203" t="n">
         <v>0</v>
       </c>
-      <c r="J1203" t="n">
-        <v>72.8</v>
-      </c>
+      <c r="J1203" t="inlineStr"/>
       <c r="K1203" t="inlineStr"/>
-      <c r="L1203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1203" t="inlineStr"/>
       <c r="M1203" t="n">
         <v>1</v>
       </c>
@@ -45377,20 +43891,14 @@
         <v>73.07000000000008</v>
       </c>
       <c r="H1204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1204" t="n">
         <v>0</v>
       </c>
-      <c r="J1204" t="n">
-        <v>72.59999999999999</v>
-      </c>
+      <c r="J1204" t="inlineStr"/>
       <c r="K1204" t="inlineStr"/>
-      <c r="L1204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1204" t="inlineStr"/>
       <c r="M1204" t="n">
         <v>1</v>
       </c>
@@ -45418,20 +43926,14 @@
         <v>73.05833333333341</v>
       </c>
       <c r="H1205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1205" t="n">
         <v>0</v>
       </c>
-      <c r="J1205" t="n">
-        <v>72.5</v>
-      </c>
+      <c r="J1205" t="inlineStr"/>
       <c r="K1205" t="inlineStr"/>
-      <c r="L1205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1205" t="inlineStr"/>
       <c r="M1205" t="n">
         <v>1</v>
       </c>
@@ -45459,20 +43961,14 @@
         <v>73.05000000000008</v>
       </c>
       <c r="H1206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1206" t="n">
         <v>0</v>
       </c>
-      <c r="J1206" t="n">
-        <v>72.8</v>
-      </c>
+      <c r="J1206" t="inlineStr"/>
       <c r="K1206" t="inlineStr"/>
-      <c r="L1206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1206" t="inlineStr"/>
       <c r="M1206" t="n">
         <v>1</v>
       </c>
@@ -45500,20 +43996,14 @@
         <v>73.0333333333334</v>
       </c>
       <c r="H1207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1207" t="n">
         <v>0</v>
       </c>
-      <c r="J1207" t="n">
-        <v>72.90000000000001</v>
-      </c>
+      <c r="J1207" t="inlineStr"/>
       <c r="K1207" t="inlineStr"/>
-      <c r="L1207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1207" t="inlineStr"/>
       <c r="M1207" t="n">
         <v>1</v>
       </c>
@@ -45541,20 +44031,14 @@
         <v>73.02166666666673</v>
       </c>
       <c r="H1208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1208" t="n">
         <v>0</v>
       </c>
-      <c r="J1208" t="n">
-        <v>72.90000000000001</v>
-      </c>
+      <c r="J1208" t="inlineStr"/>
       <c r="K1208" t="inlineStr"/>
-      <c r="L1208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1208" t="inlineStr"/>
       <c r="M1208" t="n">
         <v>1</v>
       </c>
@@ -45582,20 +44066,14 @@
         <v>73.01500000000006</v>
       </c>
       <c r="H1209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1209" t="n">
         <v>0</v>
       </c>
-      <c r="J1209" t="n">
-        <v>72.90000000000001</v>
-      </c>
+      <c r="J1209" t="inlineStr"/>
       <c r="K1209" t="inlineStr"/>
-      <c r="L1209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L1209" t="inlineStr"/>
       <c r="M1209" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-02 BackTest LAMB.xlsx
+++ b/BackTest/2019-11-02 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>298496.7516934132</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>311371.6976934132</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>66.5</v>
@@ -521,7 +521,7 @@
         <v>311371.6976934132</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>66.90000000000001</v>
@@ -562,7 +562,7 @@
         <v>338653.1787934132</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>66.90000000000001</v>
@@ -603,7 +603,7 @@
         <v>522468.6878934131</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>67.40000000000001</v>
@@ -644,7 +644,7 @@
         <v>901621.7653934131</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>68.3</v>
@@ -685,7 +685,7 @@
         <v>797805.7299934132</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>68.40000000000001</v>
@@ -726,7 +726,7 @@
         <v>731602.5541934132</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>67.5</v>
@@ -767,7 +767,7 @@
         <v>777477.9948934133</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>67.40000000000001</v>
@@ -808,7 +808,7 @@
         <v>1264089.815893413</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>68.7</v>
@@ -849,7 +849,7 @@
         <v>1256796.249293413</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>69.3</v>
@@ -890,11 +890,9 @@
         <v>1299807.473993413</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
         <v>66.5</v>
       </c>
@@ -931,7 +929,7 @@
         <v>1576049.948793413</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>69.09999999999999</v>
@@ -972,11 +970,9 @@
         <v>1719328.261393413</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>69.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>66.5</v>
       </c>
@@ -1013,9 +1009,11 @@
         <v>1692791.062193413</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>69.90000000000001</v>
+      </c>
       <c r="J16" t="n">
         <v>66.5</v>
       </c>
@@ -1169,7 +1167,7 @@
         <v>2265996.719093413</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>69.59999999999999</v>
@@ -1210,11 +1208,9 @@
         <v>2544026.138093413</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>70.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>66.5</v>
       </c>
@@ -1251,11 +1247,9 @@
         <v>2366907.551593413</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>71.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>66.5</v>
       </c>
@@ -8975,7 +8969,7 @@
         <v>3512414.516902457</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
@@ -8983,15 +8977,13 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L220" t="n">
-        <v>1.152894736842105</v>
-      </c>
-      <c r="M220" t="n">
-        <v>1.013533834586466</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9019,8 +9011,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9052,8 +9050,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9085,8 +9089,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9118,8 +9128,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9151,8 +9167,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9184,8 +9206,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9217,8 +9245,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9250,8 +9284,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9283,8 +9323,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9316,8 +9362,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9349,8 +9401,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9382,8 +9440,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9415,8 +9479,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9448,8 +9518,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9481,8 +9557,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9514,8 +9596,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9547,8 +9635,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9580,8 +9674,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9613,8 +9713,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9646,8 +9752,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9679,8 +9791,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9712,8 +9830,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9745,8 +9869,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9778,8 +9908,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9811,8 +9947,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9844,8 +9986,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9877,8 +10025,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9910,8 +10064,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9943,8 +10103,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9976,8 +10142,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10009,8 +10181,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10042,8 +10220,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10075,8 +10259,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10108,8 +10298,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10141,8 +10337,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10174,8 +10376,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10207,8 +10415,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10240,8 +10454,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10273,8 +10493,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10306,8 +10532,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10339,8 +10571,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10372,8 +10610,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10405,8 +10649,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10438,8 +10688,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10471,8 +10727,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10504,8 +10766,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10537,8 +10805,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10570,8 +10844,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10603,8 +10883,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10636,8 +10922,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10669,8 +10961,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10702,8 +11000,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10735,8 +11039,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10768,8 +11078,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10801,8 +11117,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10834,8 +11156,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10867,8 +11195,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10897,11 +11231,17 @@
         <v>3471377.093537498</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10933,8 +11273,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10966,8 +11312,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10999,8 +11351,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11032,8 +11390,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11065,8 +11429,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11098,8 +11468,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11128,11 +11504,17 @@
         <v>4334076.115801977</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11161,11 +11543,17 @@
         <v>4334076.115801977</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11194,11 +11582,17 @@
         <v>4276681.043701977</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11227,11 +11621,17 @@
         <v>4251847.104043936</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11260,11 +11660,17 @@
         <v>4277161.902743937</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11293,11 +11699,17 @@
         <v>4249748.816343936</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11326,11 +11738,17 @@
         <v>4246904.152243936</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11359,11 +11777,17 @@
         <v>4252936.335443936</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11392,11 +11816,17 @@
         <v>4252936.335443936</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11425,11 +11855,17 @@
         <v>4252936.335443936</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11458,11 +11894,17 @@
         <v>4268209.804143936</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11491,11 +11933,17 @@
         <v>4288223.512743936</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11524,11 +11972,17 @@
         <v>4275744.485243936</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11557,11 +12011,17 @@
         <v>4172698.56431077</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11590,11 +12050,17 @@
         <v>4206254.21631077</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11623,11 +12089,17 @@
         <v>4201801.476010771</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11656,11 +12128,17 @@
         <v>4201801.476010771</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11692,8 +12170,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11722,11 +12206,17 @@
         <v>4187142.302247282</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11758,8 +12248,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11791,8 +12287,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11824,8 +12326,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11857,8 +12365,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11890,8 +12404,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11923,8 +12443,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11956,8 +12482,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11989,8 +12521,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12022,8 +12560,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12055,8 +12599,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12088,8 +12638,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12121,8 +12677,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12154,8 +12716,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12187,8 +12755,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12220,8 +12794,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12253,8 +12833,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12286,8 +12872,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12319,8 +12911,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12352,8 +12950,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12385,8 +12989,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12418,8 +13028,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12451,8 +13067,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12484,8 +13106,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12517,8 +13145,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12550,8 +13184,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12583,8 +13223,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12616,8 +13262,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12646,11 +13298,17 @@
         <v>4115957.859165706</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12679,11 +13337,17 @@
         <v>4264075.704765705</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12712,11 +13376,17 @@
         <v>4511180.160465705</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12745,11 +13415,17 @@
         <v>4595631.619101385</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12778,11 +13454,17 @@
         <v>5254142.677801385</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12811,11 +13493,17 @@
         <v>5805241.211061624</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12844,11 +13532,17 @@
         <v>6062137.327461624</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12877,11 +13571,17 @@
         <v>6083942.122861624</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12910,11 +13610,17 @@
         <v>5868103.970961624</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12943,11 +13649,17 @@
         <v>5930668.885561624</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12976,11 +13688,17 @@
         <v>5782243.758561623</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13009,11 +13727,17 @@
         <v>5845268.543061623</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13042,11 +13766,17 @@
         <v>5847011.634761623</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13075,11 +13805,17 @@
         <v>5966177.086461623</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13108,11 +13844,17 @@
         <v>6156882.251261624</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13141,11 +13883,17 @@
         <v>6108312.510248456</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13174,11 +13922,17 @@
         <v>6032911.330148457</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13207,11 +13961,17 @@
         <v>5651504.985048457</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13240,11 +14000,17 @@
         <v>5668387.365748457</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13273,11 +14039,17 @@
         <v>5418872.710048457</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13306,11 +14078,17 @@
         <v>5461817.080933414</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13339,11 +14117,17 @@
         <v>5488732.080407755</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13372,11 +14156,17 @@
         <v>5488732.080407755</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13405,11 +14195,17 @@
         <v>5566832.296607754</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13438,11 +14234,17 @@
         <v>5672787.117707754</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13471,11 +14273,17 @@
         <v>5716096.068507754</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13504,11 +14312,17 @@
         <v>6300202.215407754</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13537,11 +14351,17 @@
         <v>6141338.512806687</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13570,11 +14390,17 @@
         <v>6215578.218906687</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13603,11 +14429,17 @@
         <v>6120871.164206686</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13636,11 +14468,17 @@
         <v>6156232.759206686</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13672,8 +14510,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13702,11 +14546,17 @@
         <v>6415096.105706686</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13738,8 +14588,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13771,8 +14627,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13801,11 +14663,17 @@
         <v>6085065.202165573</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13837,8 +14705,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13870,8 +14744,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13903,8 +14783,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13936,8 +14822,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13969,8 +14861,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14002,8 +14900,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14035,8 +14939,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14068,8 +14978,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14098,15 +15014,23 @@
         <v>6425098.640124491</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L375" t="n">
-        <v>1</v>
-      </c>
-      <c r="M375" t="inlineStr"/>
+        <v>1.303270676691729</v>
+      </c>
+      <c r="M375" t="n">
+        <v>1.013533834586466</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -14131,7 +15055,7 @@
         <v>6336105.702373916</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14164,7 +15088,7 @@
         <v>6531470.651673917</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14197,7 +15121,7 @@
         <v>6393018.27269474</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14230,7 +15154,7 @@
         <v>6707521.627615565</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14296,7 +15220,7 @@
         <v>7125827.426815565</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14362,7 +15286,7 @@
         <v>7505392.835085241</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14395,7 +15319,7 @@
         <v>7237109.956485241</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14428,7 +15352,7 @@
         <v>7024007.32778524</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14461,7 +15385,7 @@
         <v>7188693.19898187</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14494,7 +15418,7 @@
         <v>7527215.08018187</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14527,7 +15451,7 @@
         <v>7446116.96598187</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14560,7 +15484,7 @@
         <v>7541376.99868187</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14593,7 +15517,7 @@
         <v>7499181.923078299</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14659,7 +15583,7 @@
         <v>6692315.91456267</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14692,7 +15616,7 @@
         <v>6310885.825790152</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14725,7 +15649,7 @@
         <v>6028958.129990152</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14758,7 +15682,7 @@
         <v>5711660.741990152</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14791,7 +15715,7 @@
         <v>5322147.969490152</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14824,7 +15748,7 @@
         <v>5416604.524690152</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14857,7 +15781,7 @@
         <v>5761101.743390152</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14890,7 +15814,7 @@
         <v>5887495.046190152</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14923,7 +15847,7 @@
         <v>6025285.919390152</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14956,7 +15880,7 @@
         <v>5962348.806090152</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14989,7 +15913,7 @@
         <v>5833346.957590152</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15022,7 +15946,7 @@
         <v>5552058.164790152</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15055,7 +15979,7 @@
         <v>5334479.244090152</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15088,7 +16012,7 @@
         <v>4939059.224990152</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15121,7 +16045,7 @@
         <v>5236050.401836473</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15154,7 +16078,7 @@
         <v>5372835.066387638</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15187,7 +16111,7 @@
         <v>5471000.516599487</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15220,7 +16144,7 @@
         <v>5357028.0062307</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15253,7 +16177,7 @@
         <v>5469507.5565307</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15286,7 +16210,7 @@
         <v>5447694.3106307</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15319,7 +16243,7 @@
         <v>5447694.3106307</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15352,7 +16276,7 @@
         <v>5194656.405630699</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15385,7 +16309,7 @@
         <v>5287529.1516307</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15418,7 +16342,7 @@
         <v>5187669.910830109</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15451,7 +16375,7 @@
         <v>5274767.994130109</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15484,7 +16408,7 @@
         <v>5226715.70393011</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15517,7 +16441,7 @@
         <v>5296526.13443011</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15550,7 +16474,7 @@
         <v>5289708.993730109</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15616,7 +16540,7 @@
         <v>5293668.546274949</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15649,7 +16573,7 @@
         <v>5157755.459474949</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15682,7 +16606,7 @@
         <v>5199325.376074949</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15715,7 +16639,7 @@
         <v>5256514.056974949</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15748,7 +16672,7 @@
         <v>5415938.122430109</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15781,7 +16705,7 @@
         <v>5415938.122430109</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15814,7 +16738,7 @@
         <v>5182707.41823011</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15880,7 +16804,7 @@
         <v>5574287.850030109</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15913,7 +16837,7 @@
         <v>5514449.24233011</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15946,7 +16870,7 @@
         <v>5539053.23073011</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15979,7 +16903,7 @@
         <v>5534099.47093011</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16012,7 +16936,7 @@
         <v>5572770.27443011</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16177,7 +17101,7 @@
         <v>5493172.286983599</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16210,7 +17134,7 @@
         <v>5516259.969583599</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16243,7 +17167,7 @@
         <v>5367239.721360344</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16276,7 +17200,7 @@
         <v>5326014.360860343</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16309,7 +17233,7 @@
         <v>5313924.049060343</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16408,7 +17332,7 @@
         <v>5044925.480960343</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16441,7 +17365,7 @@
         <v>4969354.755360343</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16474,7 +17398,7 @@
         <v>4982630.755360343</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16507,7 +17431,7 @@
         <v>4982630.755360343</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16540,7 +17464,7 @@
         <v>4919608.987960342</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16573,7 +17497,7 @@
         <v>4819518.652460342</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16606,7 +17530,7 @@
         <v>4778641.552618174</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16639,7 +17563,7 @@
         <v>4829568.675118173</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16672,7 +17596,7 @@
         <v>4828527.675118173</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16705,7 +17629,7 @@
         <v>4713902.886918173</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16738,7 +17662,7 @@
         <v>4733961.930918173</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16771,7 +17695,7 @@
         <v>4706783.319902714</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16804,7 +17728,7 @@
         <v>4385088.367002714</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16837,7 +17761,7 @@
         <v>4123055.351302715</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16870,7 +17794,7 @@
         <v>3756418.258202714</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16903,7 +17827,7 @@
         <v>3844872.517302714</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16936,7 +17860,7 @@
         <v>3844872.517302714</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16969,7 +17893,7 @@
         <v>3897858.444341664</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17002,7 +17926,7 @@
         <v>3805423.027874064</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17035,7 +17959,7 @@
         <v>3806343.027874064</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17068,7 +17992,7 @@
         <v>3889625.978557678</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17101,7 +18025,7 @@
         <v>3732706.505357678</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17134,7 +18058,7 @@
         <v>3759716.746257678</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17167,7 +18091,7 @@
         <v>3749097.461457678</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -18652,7 +19576,7 @@
         <v>3858232.093647982</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18784,7 +19708,7 @@
         <v>3498259.910947982</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18850,7 +19774,7 @@
         <v>3526715.076496034</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18883,7 +19807,7 @@
         <v>3480166.153496034</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18949,7 +19873,7 @@
         <v>3504781.778338055</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18982,7 +19906,7 @@
         <v>3483746.847238055</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19015,7 +19939,7 @@
         <v>3452698.405516832</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19048,7 +19972,7 @@
         <v>3352042.762616832</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19081,7 +20005,7 @@
         <v>3341070.192916832</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19114,7 +20038,7 @@
         <v>3341962.701016833</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19147,7 +20071,7 @@
         <v>3314105.743516833</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19180,7 +20104,7 @@
         <v>3317707.348116833</v>
       </c>
       <c r="H529" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19213,7 +20137,7 @@
         <v>3308217.145616833</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19246,7 +20170,7 @@
         <v>3438903.641216833</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19279,7 +20203,7 @@
         <v>3284800.010216833</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19312,7 +20236,7 @@
         <v>3284800.010216833</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19345,7 +20269,7 @@
         <v>3354768.338916833</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19378,7 +20302,7 @@
         <v>3401261.968416832</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19411,7 +20335,7 @@
         <v>3376266.448416832</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19444,7 +20368,7 @@
         <v>3456642.973416832</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19477,7 +20401,7 @@
         <v>3404941.344616832</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19510,7 +20434,7 @@
         <v>3578029.315516832</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19543,7 +20467,7 @@
         <v>3560903.601216832</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19576,7 +20500,7 @@
         <v>3644668.039716832</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19609,7 +20533,7 @@
         <v>3784950.001516833</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19642,7 +20566,7 @@
         <v>3770772.290616833</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19675,7 +20599,7 @@
         <v>3710858.556016833</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19708,7 +20632,7 @@
         <v>3679186.425116832</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19741,7 +20665,7 @@
         <v>3712814.493716832</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19774,7 +20698,7 @@
         <v>3712859.272616832</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19807,7 +20731,7 @@
         <v>3688148.407516832</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19840,7 +20764,7 @@
         <v>3688148.407516832</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19873,7 +20797,7 @@
         <v>3758651.853616832</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19906,7 +20830,7 @@
         <v>3792409.193016832</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19939,7 +20863,7 @@
         <v>3830923.036906901</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19972,7 +20896,7 @@
         <v>3830923.036906901</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20005,7 +20929,7 @@
         <v>3912085.253116832</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20038,7 +20962,7 @@
         <v>4064922.213216832</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20071,7 +20995,7 @@
         <v>4229855.877116832</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20104,7 +21028,7 @@
         <v>4229855.877116832</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20137,7 +21061,7 @@
         <v>4286539.518366035</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20170,7 +21094,7 @@
         <v>4431344.720766035</v>
       </c>
       <c r="H559" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20203,7 +21127,7 @@
         <v>4630615.161266034</v>
       </c>
       <c r="H560" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20236,7 +21160,7 @@
         <v>4725479.723266034</v>
       </c>
       <c r="H561" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20269,7 +21193,7 @@
         <v>4343157.071166035</v>
       </c>
       <c r="H562" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20302,7 +21226,7 @@
         <v>4423907.371319707</v>
       </c>
       <c r="H563" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20335,7 +21259,7 @@
         <v>4531198.491919708</v>
       </c>
       <c r="H564" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20368,7 +21292,7 @@
         <v>4676549.698319707</v>
       </c>
       <c r="H565" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20401,7 +21325,7 @@
         <v>5143940.94833366</v>
       </c>
       <c r="H566" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20434,7 +21358,7 @@
         <v>4889644.700567253</v>
       </c>
       <c r="H567" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20467,7 +21391,7 @@
         <v>4778196.331067253</v>
       </c>
       <c r="H568" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20500,7 +21424,7 @@
         <v>4936331.074067253</v>
       </c>
       <c r="H569" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20533,7 +21457,7 @@
         <v>4859228.764667253</v>
       </c>
       <c r="H570" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20566,7 +21490,7 @@
         <v>5004026.936267253</v>
       </c>
       <c r="H571" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20599,7 +21523,7 @@
         <v>4992802.230267253</v>
       </c>
       <c r="H572" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20632,7 +21556,7 @@
         <v>4964346.085167252</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20665,7 +21589,7 @@
         <v>5166108.548842461</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20698,7 +21622,7 @@
         <v>5116428.844342461</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -20731,7 +21655,7 @@
         <v>5096242.184242461</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20764,7 +21688,7 @@
         <v>5047906.342342461</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20797,7 +21721,7 @@
         <v>5091824.77784246</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -20830,7 +21754,7 @@
         <v>5149416.917442461</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20863,7 +21787,7 @@
         <v>5143284.778642461</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20896,7 +21820,7 @@
         <v>5134257.322042461</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -20929,7 +21853,7 @@
         <v>5130178.21364246</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20962,7 +21886,7 @@
         <v>5135948.88974246</v>
       </c>
       <c r="H583" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20995,7 +21919,7 @@
         <v>5075702.386104974</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -21028,7 +21952,7 @@
         <v>5011012.851304974</v>
       </c>
       <c r="H585" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21061,7 +21985,7 @@
         <v>4717848.395404974</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21094,7 +22018,7 @@
         <v>4667111.011704974</v>
       </c>
       <c r="H587" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -21127,7 +22051,7 @@
         <v>4727884.463204974</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21160,7 +22084,7 @@
         <v>4674577.060004975</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21589,7 +22513,7 @@
         <v>4817098.716858578</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21622,7 +22546,7 @@
         <v>4747754.400358578</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21655,7 +22579,7 @@
         <v>4747754.400358578</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -21688,7 +22612,7 @@
         <v>4800169.848958578</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21721,7 +22645,7 @@
         <v>4845953.324758578</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -21754,7 +22678,7 @@
         <v>4805164.249658578</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -21787,7 +22711,7 @@
         <v>4824559.823258578</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21820,7 +22744,7 @@
         <v>4549399.719158578</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -21853,7 +22777,7 @@
         <v>3849861.538958578</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -21886,7 +22810,7 @@
         <v>3849861.538958578</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -21919,7 +22843,7 @@
         <v>3781984.125958578</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21952,7 +22876,7 @@
         <v>3877125.667858578</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -21985,7 +22909,7 @@
         <v>3932880.258758578</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -22018,7 +22942,7 @@
         <v>3967033.427358578</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -22051,7 +22975,7 @@
         <v>3998558.915358578</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -22084,7 +23008,7 @@
         <v>3998558.915358578</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -22117,7 +23041,7 @@
         <v>4095631.057158578</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22150,7 +23074,7 @@
         <v>4099431.057158578</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22183,7 +23107,7 @@
         <v>4099395.057158578</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -22216,7 +23140,7 @@
         <v>4061774.159658578</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22249,7 +23173,7 @@
         <v>4222511.579358578</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -22282,7 +23206,7 @@
         <v>4222511.579358578</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22315,7 +23239,7 @@
         <v>4203269.748558578</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22348,7 +23272,7 @@
         <v>4384652.662658578</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22414,7 +23338,7 @@
         <v>4300271.310458578</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22447,7 +23371,7 @@
         <v>4455397.520358578</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -22480,7 +23404,7 @@
         <v>4455546.520358578</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22513,7 +23437,7 @@
         <v>4361187.953758579</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22546,7 +23470,7 @@
         <v>4579810.901858578</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22579,7 +23503,7 @@
         <v>4414839.469578696</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22612,7 +23536,7 @@
         <v>4336152.439778697</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22777,7 +23701,7 @@
         <v>3983937.627078697</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -23008,7 +23932,7 @@
         <v>4339924.484478697</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -43908,6 +44832,6 @@
       <c r="M1278" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>